--- a/input/202104 EEFF LCF NEXT.xlsx
+++ b/input/202104 EEFF LCF NEXT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bimbfm-my.sharepoint.com/personal/lbellott_bim-bfm_com/Documents/BIM/01 Locfund Next/09 ALM/08 EEFF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Google Drive\ggPlot\DATA\BIM\LF Next\LFNext_codigo\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{580624E3-91A1-4ED8-BB5E-31774D175959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DBEF6FC-FFAC-479F-80EA-198FBCFA8248}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B7D954-4C31-4456-ABAB-795A216DED14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="773" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="773" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="49" r:id="rId1"/>
@@ -1428,9 +1428,6 @@
     <t>SPI4 audit</t>
   </si>
   <si>
-    <t>Endorsed to the Smart Campaign</t>
-  </si>
-  <si>
     <t>PPI Users (a)</t>
   </si>
   <si>
@@ -1735,6 +1732,9 @@
   </si>
   <si>
     <t>Equity Contributions</t>
+  </si>
+  <si>
+    <t>SMART Certified MFIs</t>
   </si>
 </sst>
 </file>
@@ -1742,8 +1742,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="15">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -1758,10 +1758,17 @@
     <numFmt numFmtId="176" formatCode="#,##0.0"/>
     <numFmt numFmtId="177" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="52">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2454,625 +2461,656 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="172" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="172" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="322">
+  <cellXfs count="323">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="19" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="19"/>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="0" xfId="19" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="22" applyAlignment="1">
+    <xf numFmtId="172" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="19" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="19"/>
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" xfId="19" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="22" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="22" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="22" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="22" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="22" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="15" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="15" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="15" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="15" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="16" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="16" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="22" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="17" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="22" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="17" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="17" fontId="35" fillId="0" borderId="17" xfId="22" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="36" fillId="0" borderId="17" xfId="22" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="35" fillId="4" borderId="17" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="36" fillId="4" borderId="17" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="35" fillId="0" borderId="17" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="36" fillId="0" borderId="17" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="35" fillId="0" borderId="17" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="36" fillId="0" borderId="17" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="35" fillId="0" borderId="17" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="36" fillId="0" borderId="17" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="35" fillId="4" borderId="17" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="36" fillId="4" borderId="17" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="35" fillId="0" borderId="17" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="36" fillId="0" borderId="17" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="35" fillId="4" borderId="17" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="36" fillId="4" borderId="17" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="22" applyFont="1"/>
-    <xf numFmtId="3" fontId="37" fillId="5" borderId="18" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="22" applyFont="1"/>
+    <xf numFmtId="3" fontId="38" fillId="5" borderId="18" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="37" fillId="5" borderId="18" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="38" fillId="5" borderId="18" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="36" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="22" applyFont="1"/>
-    <xf numFmtId="17" fontId="35" fillId="4" borderId="17" xfId="22" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="37" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="22" applyFont="1"/>
+    <xf numFmtId="17" fontId="36" fillId="4" borderId="17" xfId="22" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="37" fillId="3" borderId="0" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="38" fillId="3" borderId="0" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="35" fillId="4" borderId="17" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="36" fillId="4" borderId="17" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="17" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="17" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="35" fillId="4" borderId="17" xfId="22" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="36" fillId="4" borderId="17" xfId="22" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="35" fillId="4" borderId="17" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="36" fillId="4" borderId="17" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="35" fillId="0" borderId="17" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="36" fillId="0" borderId="17" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="35" fillId="0" borderId="17" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="36" fillId="0" borderId="17" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="35" fillId="0" borderId="17" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="36" fillId="0" borderId="17" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="35" fillId="4" borderId="17" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="36" fillId="4" borderId="17" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="35" fillId="0" borderId="17" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="36" fillId="0" borderId="17" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="35" fillId="4" borderId="17" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="36" fillId="4" borderId="17" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="35" fillId="4" borderId="17" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="36" fillId="4" borderId="17" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="37" fillId="3" borderId="0" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="38" fillId="3" borderId="0" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="37" fillId="5" borderId="18" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="38" fillId="5" borderId="18" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="37" fillId="5" borderId="18" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="38" fillId="5" borderId="18" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="37" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="36" fillId="4" borderId="17" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="17" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="36" fillId="4" borderId="0" xfId="22" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="36" fillId="4" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="4" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="36" fillId="4" borderId="0" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="36" fillId="4" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="38" fillId="3" borderId="0" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="36" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="38" fillId="3" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="43" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="35" fillId="4" borderId="17" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="16" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="16" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="17" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="18" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="45" fillId="3" borderId="18" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="18" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="39" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="16" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="45" fillId="3" borderId="18" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="35" fillId="4" borderId="0" xfId="22" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="47" fillId="3" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="35" fillId="4" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="35" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="35" fillId="4" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="35" fillId="4" borderId="0" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="35" fillId="4" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="37" fillId="3" borderId="0" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="37" fillId="3" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="42" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="16" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="16" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="18" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="44" fillId="3" borderId="18" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="18" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="38" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="16" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="44" fillId="3" borderId="18" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="44" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="3" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="18" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="3" borderId="18" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="3" borderId="18" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="46" fillId="3" borderId="18" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="46" fillId="3" borderId="18" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="35" fillId="4" borderId="0" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="47" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="18" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="47" fillId="3" borderId="18" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="47" fillId="3" borderId="18" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="47" fillId="3" borderId="18" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="47" fillId="3" borderId="18" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="49" fillId="3" borderId="18" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="36" fillId="4" borderId="0" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="50" fillId="3" borderId="18" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="19" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="19" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="19" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="19" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="46" fillId="3" borderId="18" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="47" fillId="3" borderId="18" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="46" fillId="3" borderId="18" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="47" fillId="3" borderId="18" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="42" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="43" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="19" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="19" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="19" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="19" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="19" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="21" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="22" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="19" applyBorder="1"/>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="19" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="19" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="19" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="19" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="19" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="21" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="22" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="19" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="19" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="28" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="28" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="28" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="28" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="19" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="29" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="19" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="19" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="19" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="19" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="19" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="19" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="39">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 4" xfId="14" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 4 2" xfId="32" xr:uid="{94369754-AA35-4BE5-A40B-B0FE8E2D3D50}"/>
     <cellStyle name="Millares 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Millares 2 2 11" xfId="21" xr:uid="{DFBF8972-6BA5-4341-8847-633E294AB5F6}"/>
     <cellStyle name="Millares 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Millares 3 2" xfId="26" xr:uid="{745738B6-709E-4C77-95A0-E65AC957ACA4}"/>
     <cellStyle name="Millares 4" xfId="12" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Millares 4 2" xfId="16" xr:uid="{60C80F07-E7CF-4E7D-936A-A0AD22992A3A}"/>
     <cellStyle name="Millares 4 2 2" xfId="23" xr:uid="{8C49F891-6B07-462D-9DDD-C2EC69D4190C}"/>
+    <cellStyle name="Millares 4 2 2 2" xfId="37" xr:uid="{FF7C08CE-DCD0-4464-9DAE-065D69351868}"/>
+    <cellStyle name="Millares 4 2 3" xfId="34" xr:uid="{D670A6C2-1806-402C-8226-D3EDB4B1FB03}"/>
+    <cellStyle name="Millares 4 3" xfId="30" xr:uid="{B478FC93-0595-4B01-AC72-1F30E17D5C5C}"/>
     <cellStyle name="Moneda 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Moneda 2 2" xfId="27" xr:uid="{C1063472-89F1-47AA-98BD-05F6EB91B3D2}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="19" xr:uid="{1954B39A-899A-43F1-88CA-31C8D3894A5F}"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Normal 2 2" xfId="20" xr:uid="{4F3B5706-A064-4899-86BD-F2F32D8318C7}"/>
     <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 4 2" xfId="25" xr:uid="{C934E9A9-ADDA-4F71-8AA3-64903335A703}"/>
     <cellStyle name="Normal 5" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Normal 5 2" xfId="15" xr:uid="{FF63A875-F127-4918-8D82-3AF6562DE8DA}"/>
     <cellStyle name="Normal 5 2 2" xfId="22" xr:uid="{1523445A-AC6C-45D3-A4CF-33E6ABF4AC2F}"/>
+    <cellStyle name="Normal 5 2 2 2" xfId="36" xr:uid="{D6C42D1D-CDB9-4C20-9568-6B68D3A79FB7}"/>
+    <cellStyle name="Normal 5 2 3" xfId="33" xr:uid="{6E5C4E60-F540-4A87-9855-31F9DF432451}"/>
+    <cellStyle name="Normal 5 3" xfId="29" xr:uid="{4E31D936-669B-4A03-88A8-DC0AD59F8640}"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Porcentaje 11" xfId="17" xr:uid="{2F2DBB7F-7624-45EE-830E-2287E50EC38C}"/>
     <cellStyle name="Porcentaje 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="Porcentaje 3" xfId="10" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Porcentaje 3 2" xfId="28" xr:uid="{19B31964-54D2-4910-A44C-D012B97A4893}"/>
     <cellStyle name="Porcentaje 4" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Porcentaje 4 2" xfId="31" xr:uid="{A7FDACB3-B01D-4E57-B75D-4AB5378CA8FA}"/>
     <cellStyle name="Porcentual 2" xfId="18" xr:uid="{1CC0E05D-12C7-44D2-88C9-A92F429C76CA}"/>
     <cellStyle name="Porcentual 2 2" xfId="24" xr:uid="{EA2470DC-C021-4E13-8A25-1369F861FA57}"/>
+    <cellStyle name="Porcentual 2 2 2" xfId="38" xr:uid="{919D8BE0-FEEF-4874-A263-5F39300AB7FF}"/>
+    <cellStyle name="Porcentual 2 3" xfId="35" xr:uid="{24A90C96-319B-4F4E-9133-A4AD671DE471}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3574,25 +3612,25 @@
       <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="39.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="39.77734375" style="1" customWidth="1"/>
     <col min="2" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.26953125" style="48" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.453125" style="3"/>
-    <col min="12" max="12" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.453125" style="3"/>
+    <col min="7" max="7" width="16.21875" style="48" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" style="3"/>
+    <col min="12" max="12" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.6">
       <c r="A1" s="27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="27.6">
       <c r="A3" s="73" t="s">
         <v>86</v>
       </c>
@@ -3615,12 +3653,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="25" t="s">
         <v>2</v>
       </c>
@@ -3631,7 +3669,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="50"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -3640,7 +3678,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="50" t="s">
         <v>9</v>
       </c>
@@ -3669,7 +3707,7 @@
         <v>0.4934778135384339</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="21" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="21" customFormat="1" ht="13.2">
       <c r="A8" s="72" t="s">
         <v>21</v>
       </c>
@@ -3694,7 +3732,7 @@
       </c>
       <c r="H8" s="150"/>
     </row>
-    <row r="9" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="21" customFormat="1">
       <c r="A9" s="72" t="s">
         <v>105</v>
       </c>
@@ -3722,7 +3760,7 @@
       <c r="H9" s="148"/>
       <c r="I9" s="76"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="50" t="s">
         <v>103</v>
       </c>
@@ -3753,7 +3791,7 @@
       <c r="H10" s="76"/>
       <c r="I10" s="38"/>
     </row>
-    <row r="11" spans="1:9" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="38" customFormat="1" ht="13.2">
       <c r="A11" s="72" t="s">
         <v>100</v>
       </c>
@@ -3783,7 +3821,7 @@
       </c>
       <c r="H11" s="148"/>
     </row>
-    <row r="12" spans="1:9" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="38" customFormat="1" ht="13.2">
       <c r="A12" s="72" t="s">
         <v>65</v>
       </c>
@@ -3814,7 +3852,7 @@
       <c r="H12" s="148"/>
       <c r="I12" s="148"/>
     </row>
-    <row r="13" spans="1:9" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="38" customFormat="1" ht="13.2">
       <c r="A13" s="72" t="s">
         <v>26</v>
       </c>
@@ -3839,7 +3877,7 @@
       </c>
       <c r="H13" s="148"/>
     </row>
-    <row r="14" spans="1:9" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="38" customFormat="1" ht="13.2">
       <c r="A14" s="72" t="s">
         <v>18</v>
       </c>
@@ -3864,7 +3902,7 @@
       </c>
       <c r="I14" s="44"/>
     </row>
-    <row r="15" spans="1:9" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="38" customFormat="1" ht="13.2">
       <c r="A15" s="72" t="s">
         <v>101</v>
       </c>
@@ -3889,7 +3927,7 @@
       </c>
       <c r="I15" s="46"/>
     </row>
-    <row r="16" spans="1:9" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="38" customFormat="1" ht="13.2">
       <c r="A16" s="72" t="s">
         <v>70</v>
       </c>
@@ -3918,7 +3956,7 @@
         <v>4.9400886609598911E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="38" customFormat="1" ht="13.2">
       <c r="A17" s="72" t="s">
         <v>26</v>
       </c>
@@ -3943,7 +3981,7 @@
       </c>
       <c r="I17" s="148"/>
     </row>
-    <row r="18" spans="1:9" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="38" customFormat="1" ht="13.2">
       <c r="A18" s="72" t="s">
         <v>18</v>
       </c>
@@ -3967,7 +4005,7 @@
         <v>8.4433130227030712E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="38" customFormat="1" ht="13.2">
       <c r="A19" s="72" t="s">
         <v>101</v>
       </c>
@@ -3991,7 +4029,7 @@
         <v>-4.6914902633578477E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="38" customFormat="1" ht="13.2">
       <c r="A20" s="72" t="s">
         <v>111</v>
       </c>
@@ -4020,7 +4058,7 @@
         <v>3.0569387586066751E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="38" customFormat="1" ht="13.2">
       <c r="A21" s="72" t="s">
         <v>26</v>
       </c>
@@ -4044,7 +4082,7 @@
         <v>3.0641065208540246E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="38" customFormat="1" ht="13.2">
       <c r="A22" s="72" t="s">
         <v>18</v>
       </c>
@@ -4068,7 +4106,7 @@
         <v>1.6852585864697136E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="38" customFormat="1" ht="13.2">
       <c r="A23" s="72" t="s">
         <v>101</v>
       </c>
@@ -4092,7 +4130,7 @@
         <v>-2.4020348112046926E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="38" customFormat="1" ht="13.2">
       <c r="A24" s="72" t="s">
         <v>112</v>
       </c>
@@ -4121,7 +4159,7 @@
         <v>0.20222524534325426</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="38" customFormat="1" ht="13.2">
       <c r="A25" s="72" t="s">
         <v>26</v>
       </c>
@@ -4146,7 +4184,7 @@
         <v>0.2039446687174315</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="38" customFormat="1" ht="13.2">
       <c r="A26" s="72" t="s">
         <v>18</v>
       </c>
@@ -4170,7 +4208,7 @@
         <v>3.0818293129706442E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="38" customFormat="1" ht="13.2">
       <c r="A27" s="72" t="s">
         <v>101</v>
       </c>
@@ -4194,7 +4232,7 @@
         <v>-2.0276063054743003E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="38" customFormat="1" ht="13.2">
       <c r="A28" s="72" t="s">
         <v>113</v>
       </c>
@@ -4223,7 +4261,7 @@
         <v>8.0471077076552017E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="38" customFormat="1" ht="13.2">
       <c r="A29" s="72" t="s">
         <v>26</v>
       </c>
@@ -4248,7 +4286,7 @@
         <v>8.1226264123537353E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="38" customFormat="1" ht="13.2">
       <c r="A30" s="72" t="s">
         <v>18</v>
       </c>
@@ -4272,7 +4310,7 @@
         <v>6.077308018708261E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="38" customFormat="1" ht="13.2">
       <c r="A31" s="72" t="s">
         <v>101</v>
       </c>
@@ -4296,7 +4334,7 @@
         <v>-8.1596012717241562E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="38" customFormat="1" ht="13.2">
       <c r="A32" s="72" t="s">
         <v>114</v>
       </c>
@@ -4325,7 +4363,7 @@
         <v>2.0213784885432878E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" s="38" customFormat="1" ht="13.2">
       <c r="A33" s="72" t="s">
         <v>26</v>
       </c>
@@ -4350,7 +4388,7 @@
         <v>2.041805865348981E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="38" customFormat="1" ht="13.2">
       <c r="A34" s="72" t="s">
         <v>101</v>
       </c>
@@ -4374,7 +4412,7 @@
         <v>-2.0427376805693499E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" s="22" customFormat="1">
       <c r="A35" s="50" t="s">
         <v>16</v>
       </c>
@@ -4402,7 +4440,7 @@
       <c r="H35" s="38"/>
       <c r="I35" s="109"/>
     </row>
-    <row r="36" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="22" customFormat="1">
       <c r="A36" s="50" t="s">
         <v>109</v>
       </c>
@@ -4428,7 +4466,7 @@
       <c r="H36" s="109"/>
       <c r="I36" s="109"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37" s="16" t="s">
         <v>3</v>
       </c>
@@ -4457,7 +4495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38" s="3"/>
       <c r="B38" s="65"/>
       <c r="C38" s="65"/>
@@ -4466,7 +4504,7 @@
       <c r="F38" s="65"/>
       <c r="G38" s="95"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39" s="77" t="s">
         <v>4</v>
       </c>
@@ -4477,7 +4515,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="18"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40" s="78"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -4486,7 +4524,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="18"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41" s="79" t="s">
         <v>19</v>
       </c>
@@ -4497,7 +4535,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="18"/>
     </row>
-    <row r="42" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="38" customFormat="1">
       <c r="A42" s="78" t="s">
         <v>17</v>
       </c>
@@ -4526,7 +4564,7 @@
         <v>4.5800507519320674E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" s="38" customFormat="1" ht="13.2">
       <c r="A43" s="10" t="s">
         <v>77</v>
       </c>
@@ -4551,7 +4589,7 @@
         <v>6.087358288096663E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" s="38" customFormat="1" ht="13.2">
       <c r="A44" s="72" t="s">
         <v>51</v>
       </c>
@@ -4575,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" s="38" customFormat="1" ht="13.2">
       <c r="A45" s="72" t="s">
         <v>66</v>
       </c>
@@ -4599,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" s="38" customFormat="1" ht="13.2">
       <c r="A46" s="72" t="s">
         <v>122</v>
       </c>
@@ -4624,7 +4662,7 @@
         <v>8.397923391440823E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" s="38" customFormat="1" ht="13.2">
       <c r="A47" s="10" t="s">
         <v>67</v>
       </c>
@@ -4648,7 +4686,7 @@
         <v>5.2089810854518426E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" s="38" customFormat="1" ht="13.2">
       <c r="A48" s="10" t="s">
         <v>78</v>
       </c>
@@ -4674,7 +4712,7 @@
       <c r="H48" s="46"/>
       <c r="I48" s="104"/>
     </row>
-    <row r="49" spans="1:16" s="38" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" s="38" customFormat="1" ht="13.2" hidden="1">
       <c r="A49" s="10" t="s">
         <v>83</v>
       </c>
@@ -4688,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="38" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" s="38" customFormat="1" ht="13.2" hidden="1">
       <c r="A50" s="10" t="s">
         <v>84</v>
       </c>
@@ -4713,7 +4751,7 @@
       </c>
       <c r="H50" s="44"/>
     </row>
-    <row r="51" spans="1:16" s="38" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" s="38" customFormat="1" ht="13.2" hidden="1">
       <c r="A51" s="10" t="s">
         <v>75</v>
       </c>
@@ -4738,7 +4776,7 @@
       </c>
       <c r="J51" s="96"/>
     </row>
-    <row r="52" spans="1:16" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" s="38" customFormat="1" ht="13.2">
       <c r="B52" s="62"/>
       <c r="C52" s="124"/>
       <c r="D52" s="124"/>
@@ -4747,7 +4785,7 @@
       <c r="G52" s="61"/>
       <c r="J52" s="96"/>
     </row>
-    <row r="53" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" s="38" customFormat="1">
       <c r="A53" s="131" t="s">
         <v>115</v>
       </c>
@@ -4759,7 +4797,7 @@
       <c r="G53" s="61"/>
       <c r="J53" s="96"/>
     </row>
-    <row r="54" spans="1:16" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" s="38" customFormat="1" ht="13.2">
       <c r="B54" s="62"/>
       <c r="C54" s="124"/>
       <c r="D54" s="124"/>
@@ -4768,7 +4806,7 @@
       <c r="G54" s="61"/>
       <c r="J54" s="96"/>
     </row>
-    <row r="55" spans="1:16" s="133" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" s="133" customFormat="1" ht="14.4">
       <c r="A55" s="132" t="s">
         <v>61</v>
       </c>
@@ -4794,7 +4832,7 @@
       <c r="O55" s="6"/>
       <c r="P55" s="96"/>
     </row>
-    <row r="56" spans="1:16" s="133" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="133" customFormat="1" ht="13.2">
       <c r="A56" s="133" t="s">
         <v>60</v>
       </c>
@@ -4831,7 +4869,7 @@
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
     </row>
-    <row r="57" spans="1:16" s="133" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" s="133" customFormat="1" ht="13.2">
       <c r="A57" s="134" t="s">
         <v>26</v>
       </c>
@@ -4863,7 +4901,7 @@
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
     </row>
-    <row r="58" spans="1:16" s="133" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" s="133" customFormat="1" ht="13.2">
       <c r="A58" s="134" t="s">
         <v>18</v>
       </c>
@@ -4895,7 +4933,7 @@
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:16" s="133" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" s="133" customFormat="1" ht="13.2">
       <c r="A59" s="133" t="s">
         <v>28</v>
       </c>
@@ -4932,7 +4970,7 @@
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
     </row>
-    <row r="60" spans="1:16" s="133" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" s="133" customFormat="1" ht="13.2">
       <c r="A60" s="134" t="s">
         <v>26</v>
       </c>
@@ -4964,7 +5002,7 @@
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
     </row>
-    <row r="61" spans="1:16" s="133" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" s="133" customFormat="1" ht="13.2">
       <c r="A61" s="134" t="s">
         <v>18</v>
       </c>
@@ -4996,7 +5034,7 @@
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
     </row>
-    <row r="62" spans="1:16" s="133" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" s="133" customFormat="1" ht="13.2">
       <c r="A62" s="133" t="s">
         <v>116</v>
       </c>
@@ -5033,7 +5071,7 @@
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
     </row>
-    <row r="63" spans="1:16" s="133" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" s="133" customFormat="1" ht="13.2">
       <c r="A63" s="134" t="s">
         <v>26</v>
       </c>
@@ -5065,7 +5103,7 @@
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
     </row>
-    <row r="64" spans="1:16" s="133" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="133" customFormat="1" ht="13.2">
       <c r="A64" s="134" t="s">
         <v>18</v>
       </c>
@@ -5097,7 +5135,7 @@
       <c r="N64" s="6"/>
       <c r="O64" s="6"/>
     </row>
-    <row r="65" spans="1:12" s="38" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" s="38" customFormat="1" ht="14.4">
       <c r="A65" s="132" t="s">
         <v>109</v>
       </c>
@@ -5121,7 +5159,7 @@
         <v>-9.0945737474517601E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12">
       <c r="A66" s="42" t="s">
         <v>5</v>
       </c>
@@ -5150,7 +5188,7 @@
         <v>2.2697051113874074E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12">
       <c r="A67" s="3"/>
       <c r="B67" s="51"/>
       <c r="C67" s="15"/>
@@ -5159,7 +5197,7 @@
       <c r="F67" s="15"/>
       <c r="G67" s="76"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12">
       <c r="A68" s="25" t="s">
         <v>6</v>
       </c>
@@ -5173,7 +5211,7 @@
       <c r="G68" s="53"/>
       <c r="I68" s="59"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12">
       <c r="A69" s="50"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -5183,7 +5221,7 @@
       <c r="G69" s="54"/>
       <c r="J69" s="125"/>
     </row>
-    <row r="70" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" s="21" customFormat="1">
       <c r="A70" s="50" t="s">
         <v>32</v>
       </c>
@@ -5215,7 +5253,7 @@
       <c r="I70" s="86"/>
       <c r="J70" s="110"/>
     </row>
-    <row r="71" spans="1:12" s="21" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" s="21" customFormat="1" ht="13.2">
       <c r="A71" s="72" t="s">
         <v>90</v>
       </c>
@@ -5248,7 +5286,7 @@
       <c r="I71" s="153"/>
       <c r="J71" s="103"/>
     </row>
-    <row r="72" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" s="21" customFormat="1">
       <c r="A72" s="72" t="s">
         <v>96</v>
       </c>
@@ -5283,7 +5321,7 @@
       <c r="K72" s="121"/>
       <c r="L72" s="121"/>
     </row>
-    <row r="73" spans="1:12" s="21" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" s="21" customFormat="1" ht="13.2">
       <c r="A73" s="72" t="s">
         <v>95</v>
       </c>
@@ -5318,7 +5356,7 @@
       <c r="K73" s="75"/>
       <c r="L73" s="75"/>
     </row>
-    <row r="74" spans="1:12" s="21" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" s="21" customFormat="1" ht="13.2">
       <c r="A74" s="72" t="s">
         <v>91</v>
       </c>
@@ -5350,7 +5388,7 @@
       </c>
       <c r="J74" s="110"/>
     </row>
-    <row r="75" spans="1:12" s="21" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" s="21" customFormat="1" ht="13.2">
       <c r="A75" s="72" t="s">
         <v>92</v>
       </c>
@@ -5382,7 +5420,7 @@
       </c>
       <c r="I75" s="86"/>
     </row>
-    <row r="76" spans="1:12" s="21" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" s="21" customFormat="1" ht="13.2">
       <c r="A76" s="72" t="s">
         <v>93</v>
       </c>
@@ -5415,7 +5453,7 @@
       <c r="I76" s="154"/>
       <c r="J76" s="110"/>
     </row>
-    <row r="77" spans="1:12" s="21" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" s="21" customFormat="1" ht="13.2">
       <c r="A77" s="72" t="s">
         <v>94</v>
       </c>
@@ -5443,7 +5481,7 @@
       <c r="J77" s="110"/>
       <c r="K77" s="75"/>
     </row>
-    <row r="78" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" ht="14.4" hidden="1">
       <c r="A78" s="97" t="s">
         <v>53</v>
       </c>
@@ -5468,7 +5506,7 @@
       </c>
       <c r="H78" s="121"/>
     </row>
-    <row r="79" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" ht="14.4" hidden="1">
       <c r="A79" s="97" t="s">
         <v>58</v>
       </c>
@@ -5499,7 +5537,7 @@
       <c r="H79" s="121"/>
       <c r="I79" s="59"/>
     </row>
-    <row r="80" spans="1:12" s="21" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" s="21" customFormat="1" ht="13.2" hidden="1">
       <c r="A80" s="72" t="s">
         <v>76</v>
       </c>
@@ -5524,7 +5562,7 @@
       </c>
       <c r="H80" s="103"/>
     </row>
-    <row r="81" spans="1:12" s="21" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" s="21" customFormat="1" ht="13.2" hidden="1">
       <c r="A81" s="72" t="s">
         <v>59</v>
       </c>
@@ -5549,7 +5587,7 @@
       </c>
       <c r="H81" s="103"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12">
       <c r="A82" s="50" t="s">
         <v>88</v>
       </c>
@@ -5581,7 +5619,7 @@
       <c r="I82" s="76"/>
       <c r="L82" s="59"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12">
       <c r="A83" s="50"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -5593,7 +5631,7 @@
       <c r="I83" s="76"/>
       <c r="J83" s="59"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12">
       <c r="A84" s="81" t="s">
         <v>7</v>
       </c>
@@ -5624,7 +5662,7 @@
       <c r="I84" s="59"/>
       <c r="J84" s="59"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12">
       <c r="A85" s="16" t="s">
         <v>10</v>
       </c>
@@ -5655,7 +5693,7 @@
       <c r="I85" s="59"/>
       <c r="J85" s="59"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12">
       <c r="A86" s="43"/>
       <c r="B86" s="67"/>
       <c r="C86" s="67"/>
@@ -5666,7 +5704,7 @@
       <c r="I86" s="59"/>
       <c r="J86" s="59"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12">
       <c r="A87" s="81" t="s">
         <v>80</v>
       </c>
@@ -5695,7 +5733,7 @@
         <v>December</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12">
       <c r="A88" s="24"/>
       <c r="B88" s="69"/>
       <c r="C88" s="69"/>
@@ -5706,7 +5744,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" s="38" customFormat="1">
       <c r="A89" s="50" t="s">
         <v>11</v>
       </c>
@@ -5717,7 +5755,7 @@
       <c r="F89" s="70"/>
       <c r="G89" s="25"/>
     </row>
-    <row r="90" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" s="38" customFormat="1">
       <c r="A90" s="72" t="str">
         <f>+A125</f>
         <v xml:space="preserve">Loans Interests </v>
@@ -5745,7 +5783,7 @@
         <v>88843.63</v>
       </c>
     </row>
-    <row r="91" spans="1:12" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" s="38" customFormat="1" ht="13.2">
       <c r="A91" s="72" t="str">
         <f>+A126</f>
         <v>Disbursement Fee</v>
@@ -5773,7 +5811,7 @@
         <v>2410.36</v>
       </c>
     </row>
-    <row r="92" spans="1:12" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" s="38" customFormat="1" ht="13.2">
       <c r="A92" s="72" t="str">
         <f>+A127</f>
         <v>Other Income</v>
@@ -5803,7 +5841,7 @@
         <v>10956.649999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:12" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" s="38" customFormat="1" ht="13.2">
       <c r="A93" s="72" t="s">
         <v>8</v>
       </c>
@@ -5832,7 +5870,7 @@
         <v>102210.64</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12">
       <c r="A94" s="50"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -5841,7 +5879,7 @@
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
     </row>
-    <row r="95" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" s="38" customFormat="1">
       <c r="A95" s="50" t="s">
         <v>12</v>
       </c>
@@ -5852,7 +5890,7 @@
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
     </row>
-    <row r="96" spans="1:12" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" s="38" customFormat="1" ht="13.2">
       <c r="A96" s="72" t="str">
         <f t="shared" ref="A96:A97" si="25">+A131</f>
         <v>Management Fees</v>
@@ -5882,7 +5920,7 @@
         <v>-299634.7</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" s="38" customFormat="1" ht="13.2">
       <c r="A97" s="72" t="str">
         <f t="shared" si="25"/>
         <v>Senior Loans Interests</v>
@@ -5912,7 +5950,7 @@
         <v>-35311.11</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" s="38" customFormat="1" ht="13.2">
       <c r="A98" s="72" t="str">
         <f>+A133</f>
         <v>Senior Loans Fees</v>
@@ -5941,7 +5979,7 @@
         <v>-27948.080000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" s="38" customFormat="1" ht="13.2">
       <c r="A99" s="72" t="str">
         <f t="shared" ref="A99:B102" si="33">+A134</f>
         <v>Organizational Expenses</v>
@@ -5971,7 +6009,7 @@
         <v>-108091.63</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="80" customFormat="1" ht="10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" s="80" customFormat="1" ht="10.199999999999999">
       <c r="A100" s="107" t="str">
         <f t="shared" si="33"/>
         <v>Non-legal pre-operational expenses</v>
@@ -6001,7 +6039,7 @@
         <v>-91234.67</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="80" customFormat="1" ht="10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" s="80" customFormat="1" ht="10.199999999999999">
       <c r="A101" s="107" t="str">
         <f t="shared" si="33"/>
         <v>Legal expenses</v>
@@ -6031,7 +6069,7 @@
         <v>-16856.96</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" s="38" customFormat="1" ht="13.2">
       <c r="A102" s="72" t="str">
         <f t="shared" si="33"/>
         <v>Legal Expenses</v>
@@ -6059,7 +6097,7 @@
         <v>-80770.509999999995</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="80" customFormat="1" ht="10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" s="80" customFormat="1" ht="10.199999999999999">
       <c r="A103" s="107" t="str">
         <f t="shared" ref="A103" si="34">+A138</f>
         <v>Operational - Legal Expenses</v>
@@ -6087,7 +6125,7 @@
         <v>-1459.77</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="80" customFormat="1" ht="10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" s="80" customFormat="1" ht="10.199999999999999">
       <c r="A104" s="107" t="str">
         <f t="shared" ref="A104:A106" si="36">+A139</f>
         <v>Senior Loans - Legal Expenses</v>
@@ -6115,7 +6153,7 @@
         <v>-79310.739999999991</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="116" customFormat="1" ht="9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" s="116" customFormat="1" ht="9.6" hidden="1">
       <c r="A105" s="114" t="str">
         <f t="shared" si="36"/>
         <v>Davies</v>
@@ -6139,7 +6177,7 @@
         <v>-3710.16</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="116" customFormat="1" ht="9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" s="116" customFormat="1" ht="9.6" hidden="1">
       <c r="A106" s="114" t="str">
         <f t="shared" si="36"/>
         <v>Cogency Global</v>
@@ -6163,7 +6201,7 @@
         <v>-1075</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" s="38" customFormat="1" ht="13.2">
       <c r="A107" s="72" t="str">
         <f>+A143</f>
         <v>Bank and Account Charges</v>
@@ -6193,7 +6231,7 @@
         <v>-1155</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" s="38" customFormat="1" ht="13.2">
       <c r="A108" s="72" t="str">
         <f t="shared" ref="A108:A111" si="38">+A144</f>
         <v>Credit Committe Meetings Costs</v>
@@ -6221,7 +6259,7 @@
         <v>-2750</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" s="38" customFormat="1" ht="13.2">
       <c r="A109" s="72" t="str">
         <f t="shared" si="38"/>
         <v>Advisory Committee Meetings Costs</v>
@@ -6249,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" s="38" customFormat="1" ht="13.2">
       <c r="A110" s="72" t="str">
         <f t="shared" si="38"/>
         <v>External Audit and Report Expenses</v>
@@ -6277,7 +6315,7 @@
         <v>-19800</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" s="38" customFormat="1" ht="13.2">
       <c r="A111" s="72" t="str">
         <f t="shared" si="38"/>
         <v>Others</v>
@@ -6305,7 +6343,7 @@
         <v>-1359.19</v>
       </c>
     </row>
-    <row r="112" spans="1:7" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" s="38" customFormat="1" ht="13.2">
       <c r="A112" s="72" t="str">
         <f>+A148</f>
         <v>TOTAL EXPENSES</v>
@@ -6335,7 +6373,7 @@
         <v>-576820.22</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7">
       <c r="A113" s="23"/>
       <c r="B113" s="71"/>
       <c r="C113" s="71"/>
@@ -6344,7 +6382,7 @@
       <c r="F113" s="71"/>
       <c r="G113" s="71"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7">
       <c r="A114" s="16" t="s">
         <v>118</v>
       </c>
@@ -6373,7 +6411,7 @@
         <v>-474609.57999999996</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7">
       <c r="A115" s="77"/>
       <c r="B115" s="40"/>
       <c r="C115" s="40"/>
@@ -6382,7 +6420,7 @@
       <c r="F115" s="40"/>
       <c r="G115" s="25"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7">
       <c r="A116" s="9" t="s">
         <v>54</v>
       </c>
@@ -6407,7 +6445,7 @@
         <v>-20132.800000000003</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7">
       <c r="A117" s="39"/>
       <c r="B117" s="140"/>
       <c r="C117" s="139"/>
@@ -6416,7 +6454,7 @@
       <c r="F117" s="135"/>
       <c r="G117" s="5"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7">
       <c r="A118" s="12" t="s">
         <v>119</v>
       </c>
@@ -6445,7 +6483,7 @@
         <v>-494742.37999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7">
       <c r="A119" s="43"/>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
@@ -6454,7 +6492,7 @@
       <c r="F119" s="14"/>
       <c r="G119" s="14"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7">
       <c r="A120" s="43"/>
       <c r="B120" s="14"/>
       <c r="C120" s="128"/>
@@ -6463,7 +6501,7 @@
       <c r="F120" s="128"/>
       <c r="G120" s="84"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7">
       <c r="A121" s="43"/>
       <c r="B121" s="60"/>
       <c r="C121" s="129"/>
@@ -6472,7 +6510,7 @@
       <c r="F121" s="129"/>
       <c r="G121" s="85"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7">
       <c r="A122" s="25" t="s">
         <v>81</v>
       </c>
@@ -6483,7 +6521,7 @@
       <c r="F122" s="70"/>
       <c r="G122" s="36"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7">
       <c r="A123" s="50"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -6492,7 +6530,7 @@
       <c r="F123" s="11"/>
       <c r="G123" s="64"/>
     </row>
-    <row r="124" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" s="38" customFormat="1">
       <c r="A124" s="50" t="s">
         <v>11</v>
       </c>
@@ -6503,7 +6541,7 @@
       <c r="F124" s="11"/>
       <c r="G124" s="64"/>
     </row>
-    <row r="125" spans="1:7" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" s="38" customFormat="1" ht="13.2">
       <c r="A125" s="72" t="s">
         <v>35</v>
       </c>
@@ -6525,7 +6563,7 @@
       </c>
       <c r="G125" s="89"/>
     </row>
-    <row r="126" spans="1:7" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" s="38" customFormat="1" ht="13.2">
       <c r="A126" s="72" t="s">
         <v>102</v>
       </c>
@@ -6547,7 +6585,7 @@
       </c>
       <c r="G126" s="89"/>
     </row>
-    <row r="127" spans="1:7" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" s="38" customFormat="1" ht="13.2">
       <c r="A127" s="72" t="s">
         <v>89</v>
       </c>
@@ -6571,7 +6609,7 @@
       </c>
       <c r="G127" s="89"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7">
       <c r="A128" s="50" t="s">
         <v>8</v>
       </c>
@@ -6597,7 +6635,7 @@
       </c>
       <c r="G128" s="36"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7">
       <c r="A129" s="50"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -6606,7 +6644,7 @@
       <c r="F129" s="11"/>
       <c r="G129" s="76"/>
     </row>
-    <row r="130" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" s="38" customFormat="1">
       <c r="A130" s="50" t="s">
         <v>12</v>
       </c>
@@ -6617,7 +6655,7 @@
       <c r="F130" s="11"/>
       <c r="G130" s="36"/>
     </row>
-    <row r="131" spans="1:7" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" s="38" customFormat="1" ht="13.2">
       <c r="A131" s="72" t="s">
         <v>13</v>
       </c>
@@ -6640,7 +6678,7 @@
       </c>
       <c r="G131" s="111"/>
     </row>
-    <row r="132" spans="1:7" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" s="38" customFormat="1" ht="13.2">
       <c r="A132" s="72" t="s">
         <v>62</v>
       </c>
@@ -6662,7 +6700,7 @@
       </c>
       <c r="G132" s="111"/>
     </row>
-    <row r="133" spans="1:7" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" s="38" customFormat="1" ht="13.2">
       <c r="A133" s="72" t="s">
         <v>120</v>
       </c>
@@ -6685,7 +6723,7 @@
       </c>
       <c r="G133" s="111"/>
     </row>
-    <row r="134" spans="1:7" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" s="38" customFormat="1" ht="13.2">
       <c r="A134" s="72" t="s">
         <v>97</v>
       </c>
@@ -6711,7 +6749,7 @@
       </c>
       <c r="G134" s="87"/>
     </row>
-    <row r="135" spans="1:7" s="80" customFormat="1" ht="10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" s="80" customFormat="1" ht="10.199999999999999">
       <c r="A135" s="107" t="s">
         <v>98</v>
       </c>
@@ -6732,7 +6770,7 @@
       </c>
       <c r="G135" s="108"/>
     </row>
-    <row r="136" spans="1:7" s="80" customFormat="1" ht="10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" s="80" customFormat="1" ht="10.199999999999999">
       <c r="A136" s="107" t="s">
         <v>99</v>
       </c>
@@ -6753,7 +6791,7 @@
       </c>
       <c r="G136" s="108"/>
     </row>
-    <row r="137" spans="1:7" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" s="38" customFormat="1" ht="13.2">
       <c r="A137" s="72" t="s">
         <v>20</v>
       </c>
@@ -6779,7 +6817,7 @@
       </c>
       <c r="G137" s="87"/>
     </row>
-    <row r="138" spans="1:7" s="80" customFormat="1" ht="10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" s="80" customFormat="1" ht="10.199999999999999">
       <c r="A138" s="107" t="s">
         <v>107</v>
       </c>
@@ -6800,7 +6838,7 @@
       </c>
       <c r="G138" s="108"/>
     </row>
-    <row r="139" spans="1:7" s="80" customFormat="1" ht="10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" s="80" customFormat="1" ht="10.199999999999999">
       <c r="A139" s="107" t="s">
         <v>106</v>
       </c>
@@ -6826,7 +6864,7 @@
       </c>
       <c r="G139" s="108"/>
     </row>
-    <row r="140" spans="1:7" s="116" customFormat="1" ht="9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" s="116" customFormat="1" ht="9.6">
       <c r="A140" s="114" t="s">
         <v>104</v>
       </c>
@@ -6849,7 +6887,7 @@
       </c>
       <c r="G140" s="115"/>
     </row>
-    <row r="141" spans="1:7" s="116" customFormat="1" ht="9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" s="116" customFormat="1" ht="9.6">
       <c r="A141" s="114" t="s">
         <v>108</v>
       </c>
@@ -6871,7 +6909,7 @@
       </c>
       <c r="G141" s="115"/>
     </row>
-    <row r="142" spans="1:7" s="116" customFormat="1" ht="9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" s="116" customFormat="1" ht="9.6">
       <c r="A142" s="114" t="s">
         <v>117</v>
       </c>
@@ -6892,7 +6930,7 @@
       </c>
       <c r="G142" s="115"/>
     </row>
-    <row r="143" spans="1:7" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" s="38" customFormat="1" ht="13.2">
       <c r="A143" s="72" t="s">
         <v>23</v>
       </c>
@@ -6915,7 +6953,7 @@
       </c>
       <c r="G143" s="86"/>
     </row>
-    <row r="144" spans="1:7" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" s="38" customFormat="1" ht="13.2">
       <c r="A144" s="72" t="s">
         <v>56</v>
       </c>
@@ -6936,7 +6974,7 @@
       </c>
       <c r="G144" s="86"/>
     </row>
-    <row r="145" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A145" s="72" t="s">
         <v>68</v>
       </c>
@@ -6957,7 +6995,7 @@
       </c>
       <c r="G145" s="86"/>
     </row>
-    <row r="146" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A146" s="72" t="s">
         <v>110</v>
       </c>
@@ -6979,7 +7017,7 @@
       </c>
       <c r="G146" s="86"/>
     </row>
-    <row r="147" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A147" s="72" t="s">
         <v>22</v>
       </c>
@@ -7000,7 +7038,7 @@
       </c>
       <c r="G147" s="86"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8">
       <c r="A148" s="50" t="s">
         <v>14</v>
       </c>
@@ -7026,7 +7064,7 @@
       </c>
       <c r="G148" s="36"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8">
       <c r="A149" s="23"/>
       <c r="B149" s="71"/>
       <c r="C149" s="71"/>
@@ -7035,7 +7073,7 @@
       <c r="F149" s="71"/>
       <c r="G149" s="36"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8">
       <c r="A150" s="16" t="s">
         <v>118</v>
       </c>
@@ -7061,7 +7099,7 @@
       </c>
       <c r="G150" s="84"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8">
       <c r="A151" s="77"/>
       <c r="B151" s="40"/>
       <c r="C151" s="40"/>
@@ -7070,7 +7108,7 @@
       <c r="F151" s="40"/>
       <c r="G151" s="84"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8">
       <c r="A152" s="9" t="s">
         <v>54</v>
       </c>
@@ -7092,7 +7130,7 @@
       </c>
       <c r="G152" s="151"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8">
       <c r="A153" s="39"/>
       <c r="B153" s="140"/>
       <c r="C153" s="139"/>
@@ -7101,7 +7139,7 @@
       <c r="F153" s="135"/>
       <c r="G153" s="84"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8">
       <c r="A154" s="12" t="s">
         <v>119</v>
       </c>
@@ -7128,7 +7166,7 @@
       <c r="G154" s="90"/>
       <c r="H154" s="59"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8">
       <c r="A156" s="3"/>
       <c r="B156" s="93">
         <f>+B37-B85</f>
@@ -7152,7 +7190,7 @@
       </c>
       <c r="G156" s="90"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8">
       <c r="A159" s="3"/>
       <c r="B159" s="15"/>
       <c r="C159" s="15"/>
@@ -7160,7 +7198,7 @@
       <c r="E159" s="15"/>
       <c r="F159" s="141"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8">
       <c r="A160" s="3"/>
       <c r="B160" s="90"/>
       <c r="C160" s="90"/>
@@ -7168,7 +7206,7 @@
       <c r="E160" s="90"/>
       <c r="F160" s="26"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6">
       <c r="A162" s="3"/>
       <c r="B162" s="93"/>
       <c r="C162" s="93"/>
@@ -7177,7 +7215,7 @@
       <c r="F162" s="93"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -7195,24 +7233,24 @@
       <selection sqref="A1:F188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="39.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="39.77734375" style="1" customWidth="1"/>
     <col min="2" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.26953125" style="48" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="48" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" style="3" customWidth="1"/>
     <col min="10" max="10" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.453125" style="3"/>
+    <col min="11" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.6">
       <c r="A1" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="27.6">
       <c r="A3" s="73" t="s">
         <v>124</v>
       </c>
@@ -7232,11 +7270,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="3"/>
       <c r="F4" s="36"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="25" t="s">
         <v>2</v>
       </c>
@@ -7246,7 +7284,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="50"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -7254,7 +7292,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="50" t="s">
         <v>9</v>
       </c>
@@ -7279,7 +7317,7 @@
         <v>0.23093834135409691</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="21" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="21" customFormat="1" ht="13.2">
       <c r="A8" s="72" t="s">
         <v>21</v>
       </c>
@@ -7301,7 +7339,7 @@
       </c>
       <c r="G8" s="150"/>
     </row>
-    <row r="9" spans="1:8" s="21" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="21" customFormat="1" ht="13.2" hidden="1">
       <c r="A9" s="72" t="s">
         <v>121</v>
       </c>
@@ -7321,7 +7359,7 @@
       </c>
       <c r="G9" s="105"/>
     </row>
-    <row r="10" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="21" customFormat="1">
       <c r="A10" s="72" t="s">
         <v>105</v>
       </c>
@@ -7344,7 +7382,7 @@
       <c r="G10" s="148"/>
       <c r="H10" s="76"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="50" t="s">
         <v>103</v>
       </c>
@@ -7371,7 +7409,7 @@
       <c r="G11" s="76"/>
       <c r="H11" s="38"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="29" t="s">
         <v>127</v>
       </c>
@@ -7398,7 +7436,7 @@
       <c r="G12" s="76"/>
       <c r="H12" s="38"/>
     </row>
-    <row r="13" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A13" s="72" t="s">
         <v>125</v>
       </c>
@@ -7423,7 +7461,7 @@
         <v>0.14091778520168394</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A14" s="72" t="s">
         <v>26</v>
       </c>
@@ -7444,7 +7482,7 @@
         <v>0.13939328709925075</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A15" s="72" t="s">
         <v>18</v>
       </c>
@@ -7466,7 +7504,7 @@
       </c>
       <c r="G15" s="44"/>
     </row>
-    <row r="16" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A16" s="72" t="s">
         <v>101</v>
       </c>
@@ -7488,7 +7526,7 @@
       </c>
       <c r="G16" s="44"/>
     </row>
-    <row r="17" spans="1:10" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="38" customFormat="1" ht="13.2">
       <c r="A17" s="72" t="s">
         <v>149</v>
       </c>
@@ -7514,7 +7552,7 @@
       </c>
       <c r="G17" s="44"/>
     </row>
-    <row r="18" spans="1:10" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="38" customFormat="1" ht="13.2">
       <c r="A18" s="72" t="s">
         <v>26</v>
       </c>
@@ -7535,7 +7573,7 @@
         <v>0.1115146296794006</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="38" customFormat="1" ht="13.2">
       <c r="A19" s="72" t="s">
         <v>18</v>
       </c>
@@ -7556,7 +7594,7 @@
         <v>8.846826358610534E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="38" customFormat="1" ht="13.2">
       <c r="A20" s="72" t="s">
         <v>101</v>
       </c>
@@ -7577,7 +7615,7 @@
         <v>-1.0919141752063221E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="38" customFormat="1" ht="13.2">
       <c r="A21" s="72" t="s">
         <v>100</v>
       </c>
@@ -7605,7 +7643,7 @@
       <c r="H21" s="148"/>
       <c r="J21" s="148"/>
     </row>
-    <row r="22" spans="1:10" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="38" customFormat="1" ht="13.2">
       <c r="A22" s="72" t="s">
         <v>128</v>
       </c>
@@ -7633,7 +7671,7 @@
       <c r="H22" s="148"/>
       <c r="J22" s="148"/>
     </row>
-    <row r="23" spans="1:10" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="38" customFormat="1" ht="13.2">
       <c r="A23" s="72" t="s">
         <v>26</v>
       </c>
@@ -7657,7 +7695,7 @@
       <c r="H23" s="46"/>
       <c r="J23" s="148"/>
     </row>
-    <row r="24" spans="1:10" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="38" customFormat="1" ht="13.2">
       <c r="A24" s="72" t="s">
         <v>18</v>
       </c>
@@ -7681,7 +7719,7 @@
       <c r="I24" s="148"/>
       <c r="J24" s="148"/>
     </row>
-    <row r="25" spans="1:10" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="38" customFormat="1" ht="13.2">
       <c r="A25" s="72" t="s">
         <v>101</v>
       </c>
@@ -7704,7 +7742,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="148"/>
     </row>
-    <row r="26" spans="1:10" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="38" customFormat="1" ht="13.2">
       <c r="A26" s="72" t="s">
         <v>129</v>
       </c>
@@ -7730,7 +7768,7 @@
       </c>
       <c r="I26" s="148"/>
     </row>
-    <row r="27" spans="1:10" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="38" customFormat="1" ht="13.2">
       <c r="A27" s="72" t="s">
         <v>26</v>
       </c>
@@ -7753,7 +7791,7 @@
       <c r="H27" s="148"/>
       <c r="I27" s="148"/>
     </row>
-    <row r="28" spans="1:10" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="38" customFormat="1" ht="13.2">
       <c r="A28" s="72" t="s">
         <v>18</v>
       </c>
@@ -7775,7 +7813,7 @@
       </c>
       <c r="I28" s="148"/>
     </row>
-    <row r="29" spans="1:10" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="38" customFormat="1" ht="13.2">
       <c r="A29" s="72" t="s">
         <v>101</v>
       </c>
@@ -7798,7 +7836,7 @@
       <c r="G29" s="148"/>
       <c r="I29" s="172"/>
     </row>
-    <row r="30" spans="1:10" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" s="38" customFormat="1" ht="13.2">
       <c r="A30" s="72" t="s">
         <v>111</v>
       </c>
@@ -7825,7 +7863,7 @@
       <c r="G30" s="148"/>
       <c r="I30" s="148"/>
     </row>
-    <row r="31" spans="1:10" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" s="38" customFormat="1" ht="13.2">
       <c r="A31" s="72" t="s">
         <v>26</v>
       </c>
@@ -7848,7 +7886,7 @@
       <c r="G31" s="148"/>
       <c r="I31" s="172"/>
     </row>
-    <row r="32" spans="1:10" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" s="38" customFormat="1" ht="13.2">
       <c r="A32" s="72" t="s">
         <v>18</v>
       </c>
@@ -7871,7 +7909,7 @@
       <c r="G32" s="148"/>
       <c r="I32" s="148"/>
     </row>
-    <row r="33" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A33" s="72" t="s">
         <v>101</v>
       </c>
@@ -7892,7 +7930,7 @@
         <v>-1.5016281246053886E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A34" s="72" t="s">
         <v>112</v>
       </c>
@@ -7917,7 +7955,7 @@
         <v>0.12675770436113812</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A35" s="72" t="s">
         <v>26</v>
       </c>
@@ -7938,7 +7976,7 @@
         <v>0.12783198221887407</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A36" s="72" t="s">
         <v>18</v>
       </c>
@@ -7960,7 +7998,7 @@
       </c>
       <c r="H36" s="148"/>
     </row>
-    <row r="37" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A37" s="72" t="s">
         <v>101</v>
       </c>
@@ -7981,7 +8019,7 @@
         <v>-1.2674462871323504E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A38" s="72" t="s">
         <v>113</v>
       </c>
@@ -8006,7 +8044,7 @@
         <v>5.5029192889391065E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A39" s="72" t="s">
         <v>26</v>
       </c>
@@ -8027,7 +8065,7 @@
         <v>5.3632298747407423E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A40" s="72" t="s">
         <v>18</v>
       </c>
@@ -8048,7 +8086,7 @@
         <v>1.918844499502711E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A41" s="72" t="s">
         <v>101</v>
       </c>
@@ -8069,7 +8107,7 @@
         <v>-5.2195035751906695E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A42" s="72" t="s">
         <v>114</v>
       </c>
@@ -8094,7 +8132,7 @@
         <v>1.4316541162930931E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A43" s="72" t="s">
         <v>26</v>
       </c>
@@ -8115,7 +8153,7 @@
         <v>1.3983187413777983E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A44" s="72" t="s">
         <v>18</v>
       </c>
@@ -8136,7 +8174,7 @@
         <v>4.616471488004858E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A45" s="72" t="s">
         <v>101</v>
       </c>
@@ -8157,7 +8195,7 @@
         <v>-1.2829339964753742E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A46" s="72" t="s">
         <v>126</v>
       </c>
@@ -8182,7 +8220,7 @@
         <v>2.725046902614154E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A47" s="72" t="s">
         <v>26</v>
       </c>
@@ -8203,7 +8241,7 @@
         <v>2.6853815948957097E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A48" s="72" t="s">
         <v>18</v>
       </c>
@@ -8224,7 +8262,7 @@
         <v>4.4636992332098213E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A49" s="72" t="s">
         <v>101</v>
       </c>
@@ -8245,7 +8283,7 @@
         <v>-4.9716846136541363E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A50" s="72" t="s">
         <v>134</v>
       </c>
@@ -8270,7 +8308,7 @@
         <v>2.3450583765384003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A51" s="72" t="s">
         <v>26</v>
       </c>
@@ -8291,7 +8329,7 @@
         <v>2.3418072232674125E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A52" s="72" t="s">
         <v>18</v>
       </c>
@@ -8312,7 +8350,7 @@
         <v>2.6020070965641001E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A53" s="72" t="s">
         <v>101</v>
       </c>
@@ -8333,7 +8371,7 @@
         <v>-2.2768917694652915E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A54" s="72" t="s">
         <v>150</v>
       </c>
@@ -8358,7 +8396,7 @@
         <v>5.2563533894176249E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A55" s="72" t="s">
         <v>26</v>
       </c>
@@ -8379,7 +8417,7 @@
         <v>5.2969449097715282E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A56" s="72" t="s">
         <v>18</v>
       </c>
@@ -8400,7 +8438,7 @@
         <v>6.9154682449383485E-5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A57" s="72" t="s">
         <v>101</v>
       </c>
@@ -8421,7 +8459,7 @@
         <v>-4.7506988598842108E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A58" s="72" t="s">
         <v>151</v>
       </c>
@@ -8446,7 +8484,7 @@
         <v>7.7958741553579097E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A59" s="72" t="s">
         <v>26</v>
       </c>
@@ -8467,7 +8505,7 @@
         <v>7.8035874828995475E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A60" s="72" t="s">
         <v>18</v>
       </c>
@@ -8488,7 +8526,7 @@
         <v>1.560716939006761E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A61" s="72" t="s">
         <v>101</v>
       </c>
@@ -8509,7 +8547,7 @@
         <v>-2.3320496931704651E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A62" s="72" t="s">
         <v>161</v>
       </c>
@@ -8534,7 +8572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A63" s="72" t="s">
         <v>26</v>
       </c>
@@ -8555,7 +8593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A64" s="72" t="s">
         <v>18</v>
       </c>
@@ -8576,7 +8614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A65" s="72" t="s">
         <v>101</v>
       </c>
@@ -8597,7 +8635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="22" customFormat="1">
       <c r="A66" s="50" t="s">
         <v>16</v>
       </c>
@@ -8621,7 +8659,7 @@
       <c r="G66" s="38"/>
       <c r="H66" s="109"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8">
       <c r="A67" s="16" t="s">
         <v>3</v>
       </c>
@@ -8647,7 +8685,7 @@
       </c>
       <c r="G67" s="76"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8">
       <c r="A68" s="3"/>
       <c r="B68" s="65"/>
       <c r="C68" s="65"/>
@@ -8656,7 +8694,7 @@
       <c r="F68" s="95"/>
       <c r="G68" s="76"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8">
       <c r="A69" s="77" t="s">
         <v>4</v>
       </c>
@@ -8666,7 +8704,7 @@
       <c r="E69" s="11"/>
       <c r="F69" s="18"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8">
       <c r="A70" s="78"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -8675,7 +8713,7 @@
       <c r="F70" s="18"/>
       <c r="G70" s="59"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8">
       <c r="A71" s="79" t="s">
         <v>19</v>
       </c>
@@ -8685,7 +8723,7 @@
       <c r="E71" s="11"/>
       <c r="F71" s="18"/>
     </row>
-    <row r="72" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="38" customFormat="1">
       <c r="A72" s="78" t="s">
         <v>17</v>
       </c>
@@ -8710,7 +8748,7 @@
         <v>1.7553977855681879E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A73" s="10" t="s">
         <v>77</v>
       </c>
@@ -8733,7 +8771,7 @@
       </c>
       <c r="H73" s="148"/>
     </row>
-    <row r="74" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A74" s="72" t="s">
         <v>51</v>
       </c>
@@ -8754,7 +8792,7 @@
         <v>6.2726979194662849E-5</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="38" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="38" customFormat="1" ht="13.2" hidden="1">
       <c r="A75" s="72" t="s">
         <v>66</v>
       </c>
@@ -8773,7 +8811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A76" s="72" t="s">
         <v>122</v>
       </c>
@@ -8795,7 +8833,7 @@
         <v>1.9677787917254773E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A77" s="10" t="s">
         <v>67</v>
       </c>
@@ -8817,7 +8855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="38" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="38" customFormat="1" ht="13.2" hidden="1">
       <c r="A78" s="10" t="s">
         <v>78</v>
       </c>
@@ -8841,7 +8879,7 @@
       <c r="G78" s="46"/>
       <c r="H78" s="104"/>
     </row>
-    <row r="79" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A79" s="10" t="s">
         <v>132</v>
       </c>
@@ -8862,7 +8900,7 @@
         <v>1.1848457282093737E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="38" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" s="38" customFormat="1" ht="13.2" hidden="1">
       <c r="A80" s="10" t="s">
         <v>84</v>
       </c>
@@ -8884,7 +8922,7 @@
       </c>
       <c r="G80" s="44"/>
     </row>
-    <row r="81" spans="1:14" s="38" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" s="38" customFormat="1" ht="13.2" hidden="1">
       <c r="A81" s="10" t="s">
         <v>75</v>
       </c>
@@ -8906,7 +8944,7 @@
       </c>
       <c r="I81" s="96"/>
     </row>
-    <row r="82" spans="1:14" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" s="38" customFormat="1" ht="13.2">
       <c r="B82" s="124"/>
       <c r="C82" s="124"/>
       <c r="D82" s="124"/>
@@ -8914,7 +8952,7 @@
       <c r="F82" s="61"/>
       <c r="I82" s="96"/>
     </row>
-    <row r="83" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" s="38" customFormat="1">
       <c r="A83" s="155" t="s">
         <v>115</v>
       </c>
@@ -8926,7 +8964,7 @@
       <c r="H83" s="148"/>
       <c r="I83" s="96"/>
     </row>
-    <row r="84" spans="1:14" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" s="38" customFormat="1" ht="13.2">
       <c r="B84" s="124"/>
       <c r="C84" s="124"/>
       <c r="D84" s="124"/>
@@ -8934,7 +8972,7 @@
       <c r="F84" s="61"/>
       <c r="I84" s="96"/>
     </row>
-    <row r="85" spans="1:14" s="160" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" s="160" customFormat="1" ht="14.4">
       <c r="A85" s="156" t="s">
         <v>61</v>
       </c>
@@ -8967,7 +9005,7 @@
       <c r="M85" s="38"/>
       <c r="N85" s="96"/>
     </row>
-    <row r="86" spans="1:14" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" s="160" customFormat="1" ht="13.2">
       <c r="A86" s="160" t="s">
         <v>60</v>
       </c>
@@ -8999,7 +9037,7 @@
       <c r="L86" s="38"/>
       <c r="M86" s="38"/>
     </row>
-    <row r="87" spans="1:14" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" s="160" customFormat="1" ht="13.2">
       <c r="A87" s="161" t="s">
         <v>26</v>
       </c>
@@ -9027,7 +9065,7 @@
       <c r="L87" s="38"/>
       <c r="M87" s="38"/>
     </row>
-    <row r="88" spans="1:14" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" s="160" customFormat="1" ht="13.2">
       <c r="A88" s="161" t="s">
         <v>18</v>
       </c>
@@ -9056,7 +9094,7 @@
       <c r="L88" s="38"/>
       <c r="M88" s="38"/>
     </row>
-    <row r="89" spans="1:14" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" s="160" customFormat="1" ht="13.2">
       <c r="A89" s="160" t="s">
         <v>28</v>
       </c>
@@ -9088,7 +9126,7 @@
       <c r="L89" s="38"/>
       <c r="M89" s="38"/>
     </row>
-    <row r="90" spans="1:14" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" s="160" customFormat="1" ht="13.2">
       <c r="A90" s="161" t="s">
         <v>26</v>
       </c>
@@ -9116,7 +9154,7 @@
       <c r="L90" s="38"/>
       <c r="M90" s="38"/>
     </row>
-    <row r="91" spans="1:14" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" s="160" customFormat="1" ht="13.2">
       <c r="A91" s="161" t="s">
         <v>18</v>
       </c>
@@ -9145,7 +9183,7 @@
       <c r="L91" s="38"/>
       <c r="M91" s="38"/>
     </row>
-    <row r="92" spans="1:14" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" s="160" customFormat="1" ht="13.2">
       <c r="A92" s="160" t="s">
         <v>116</v>
       </c>
@@ -9177,7 +9215,7 @@
       <c r="L92" s="38"/>
       <c r="M92" s="38"/>
     </row>
-    <row r="93" spans="1:14" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" s="160" customFormat="1" ht="13.2">
       <c r="A93" s="161" t="s">
         <v>26</v>
       </c>
@@ -9205,7 +9243,7 @@
       <c r="L93" s="38"/>
       <c r="M93" s="38"/>
     </row>
-    <row r="94" spans="1:14" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" s="160" customFormat="1" ht="13.2">
       <c r="A94" s="161" t="s">
         <v>18</v>
       </c>
@@ -9234,7 +9272,7 @@
       <c r="L94" s="38"/>
       <c r="M94" s="38"/>
     </row>
-    <row r="95" spans="1:14" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" s="160" customFormat="1" ht="13.2">
       <c r="A95" s="160" t="s">
         <v>15</v>
       </c>
@@ -9266,7 +9304,7 @@
       <c r="L95" s="38"/>
       <c r="M95" s="38"/>
     </row>
-    <row r="96" spans="1:14" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" s="160" customFormat="1" ht="13.2">
       <c r="A96" s="161" t="s">
         <v>26</v>
       </c>
@@ -9294,7 +9332,7 @@
       <c r="L96" s="38"/>
       <c r="M96" s="38"/>
     </row>
-    <row r="97" spans="1:13" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" s="160" customFormat="1" ht="13.2">
       <c r="A97" s="161" t="s">
         <v>18</v>
       </c>
@@ -9322,7 +9360,7 @@
       <c r="L97" s="38"/>
       <c r="M97" s="38"/>
     </row>
-    <row r="98" spans="1:13" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" s="160" customFormat="1" ht="13.2">
       <c r="A98" s="160" t="s">
         <v>159</v>
       </c>
@@ -9354,7 +9392,7 @@
       <c r="L98" s="38"/>
       <c r="M98" s="38"/>
     </row>
-    <row r="99" spans="1:13" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" s="160" customFormat="1" ht="13.2">
       <c r="A99" s="161" t="s">
         <v>26</v>
       </c>
@@ -9382,7 +9420,7 @@
       <c r="L99" s="38"/>
       <c r="M99" s="38"/>
     </row>
-    <row r="100" spans="1:13" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" s="160" customFormat="1" ht="13.2">
       <c r="A100" s="161" t="s">
         <v>18</v>
       </c>
@@ -9410,7 +9448,7 @@
       <c r="L100" s="38"/>
       <c r="M100" s="38"/>
     </row>
-    <row r="101" spans="1:13" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" s="160" customFormat="1" ht="13.2">
       <c r="A101" s="160" t="s">
         <v>160</v>
       </c>
@@ -9442,7 +9480,7 @@
       <c r="L101" s="38"/>
       <c r="M101" s="38"/>
     </row>
-    <row r="102" spans="1:13" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" s="160" customFormat="1" ht="13.2">
       <c r="A102" s="161" t="s">
         <v>26</v>
       </c>
@@ -9470,7 +9508,7 @@
       <c r="L102" s="38"/>
       <c r="M102" s="38"/>
     </row>
-    <row r="103" spans="1:13" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" s="160" customFormat="1" ht="13.2">
       <c r="A103" s="161" t="s">
         <v>18</v>
       </c>
@@ -9498,7 +9536,7 @@
       <c r="L103" s="38"/>
       <c r="M103" s="38"/>
     </row>
-    <row r="104" spans="1:13" s="38" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" s="38" customFormat="1" ht="14.4">
       <c r="A104" s="156" t="s">
         <v>109</v>
       </c>
@@ -9520,7 +9558,7 @@
         <v>-7.3207121304067176E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13">
       <c r="A105" s="42" t="s">
         <v>5</v>
       </c>
@@ -9545,7 +9583,7 @@
         <v>0.5860036499011505</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13">
       <c r="A106" s="3"/>
       <c r="B106" s="15"/>
       <c r="C106" s="15"/>
@@ -9553,7 +9591,7 @@
       <c r="E106" s="15"/>
       <c r="F106" s="76"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13">
       <c r="A107" s="25" t="s">
         <v>6</v>
       </c>
@@ -9564,7 +9602,7 @@
       <c r="F107" s="53"/>
       <c r="H107" s="59"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13">
       <c r="A108" s="50"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -9573,7 +9611,7 @@
       <c r="F108" s="54"/>
       <c r="I108" s="125"/>
     </row>
-    <row r="109" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" s="21" customFormat="1">
       <c r="A109" s="50" t="s">
         <v>32</v>
       </c>
@@ -9601,7 +9639,7 @@
       <c r="H109" s="86"/>
       <c r="I109" s="110"/>
     </row>
-    <row r="110" spans="1:13" s="21" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" s="21" customFormat="1" ht="13.2">
       <c r="A110" s="72" t="s">
         <v>90</v>
       </c>
@@ -9625,7 +9663,7 @@
       <c r="G110" s="153"/>
       <c r="H110" s="153"/>
     </row>
-    <row r="111" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" s="21" customFormat="1">
       <c r="A111" s="72" t="s">
         <v>96</v>
       </c>
@@ -9651,7 +9689,7 @@
       <c r="I111" s="106"/>
       <c r="J111" s="121"/>
     </row>
-    <row r="112" spans="1:13" s="21" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" s="21" customFormat="1" ht="13.2">
       <c r="A112" s="72" t="s">
         <v>95</v>
       </c>
@@ -9677,7 +9715,7 @@
       <c r="I112" s="75"/>
       <c r="J112" s="75"/>
     </row>
-    <row r="113" spans="1:10" s="21" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" s="21" customFormat="1" ht="13.2">
       <c r="A113" s="72" t="s">
         <v>91</v>
       </c>
@@ -9701,7 +9739,7 @@
       <c r="G113" s="105"/>
       <c r="H113" s="177"/>
     </row>
-    <row r="114" spans="1:10" s="21" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" s="21" customFormat="1" ht="13.2">
       <c r="A114" s="72" t="s">
         <v>92</v>
       </c>
@@ -9726,7 +9764,7 @@
       <c r="H114" s="110"/>
       <c r="I114" s="177"/>
     </row>
-    <row r="115" spans="1:10" s="21" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" s="21" customFormat="1" ht="13.2">
       <c r="A115" s="72" t="s">
         <v>93</v>
       </c>
@@ -9751,7 +9789,7 @@
       <c r="H115" s="123"/>
       <c r="I115" s="86"/>
     </row>
-    <row r="116" spans="1:10" s="21" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" s="21" customFormat="1" ht="13.2">
       <c r="A116" s="72" t="s">
         <v>94</v>
       </c>
@@ -9776,7 +9814,7 @@
       <c r="I116" s="110"/>
       <c r="J116" s="75"/>
     </row>
-    <row r="117" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" ht="14.4">
       <c r="A117" s="97" t="s">
         <v>53</v>
       </c>
@@ -9799,7 +9837,7 @@
       <c r="G117" s="59"/>
       <c r="H117" s="59"/>
     </row>
-    <row r="118" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" ht="14.4" hidden="1">
       <c r="A118" s="97" t="s">
         <v>58</v>
       </c>
@@ -9823,7 +9861,7 @@
       <c r="G118" s="121"/>
       <c r="H118" s="59"/>
     </row>
-    <row r="119" spans="1:10" s="21" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" s="21" customFormat="1" hidden="1">
       <c r="A119" s="72" t="s">
         <v>76</v>
       </c>
@@ -9842,7 +9880,7 @@
       <c r="F119" s="54"/>
       <c r="G119" s="103"/>
     </row>
-    <row r="120" spans="1:10" s="21" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" s="21" customFormat="1" hidden="1">
       <c r="A120" s="72" t="s">
         <v>59</v>
       </c>
@@ -9861,7 +9899,7 @@
       <c r="F120" s="54"/>
       <c r="G120" s="103"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10">
       <c r="A121" s="50" t="s">
         <v>88</v>
       </c>
@@ -9888,7 +9926,7 @@
       <c r="G121" s="121"/>
       <c r="H121" s="76"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10">
       <c r="A122" s="50"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -9899,7 +9937,7 @@
       <c r="H122" s="76"/>
       <c r="I122" s="59"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10">
       <c r="A123" s="81" t="s">
         <v>7</v>
       </c>
@@ -9926,7 +9964,7 @@
       <c r="H123" s="59"/>
       <c r="I123" s="59"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10">
       <c r="A124" s="16" t="s">
         <v>10</v>
       </c>
@@ -9953,7 +9991,7 @@
       <c r="H124" s="59"/>
       <c r="I124" s="59"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10">
       <c r="A125" s="43"/>
       <c r="B125" s="67"/>
       <c r="C125" s="67"/>
@@ -9963,7 +10001,7 @@
       <c r="H125" s="59"/>
       <c r="I125" s="59"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10">
       <c r="A126" s="81" t="s">
         <v>80</v>
       </c>
@@ -9988,7 +10026,7 @@
         <v>April</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10">
       <c r="A127" s="24"/>
       <c r="B127" s="69"/>
       <c r="C127" s="69"/>
@@ -9998,7 +10036,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" s="38" customFormat="1">
       <c r="A128" s="50" t="s">
         <v>11</v>
       </c>
@@ -10008,7 +10046,7 @@
       <c r="E128" s="70"/>
       <c r="F128" s="25"/>
     </row>
-    <row r="129" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A129" s="72" t="str">
         <f t="shared" ref="A129:B131" si="18">+A159</f>
         <v xml:space="preserve">Loans Interests </v>
@@ -10034,7 +10072,7 @@
         <v>685310.86</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A130" s="72" t="str">
         <f t="shared" si="18"/>
         <v>Disbursement Fee</v>
@@ -10060,7 +10098,7 @@
         <v>15624.28</v>
       </c>
     </row>
-    <row r="131" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A131" s="72" t="str">
         <f t="shared" si="18"/>
         <v>Other Income</v>
@@ -10086,7 +10124,7 @@
         <v>3460.8</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A132" s="72" t="s">
         <v>8</v>
       </c>
@@ -10111,7 +10149,7 @@
         <v>704395.94000000006</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6">
       <c r="A133" s="50"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -10119,7 +10157,7 @@
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
     </row>
-    <row r="134" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" s="38" customFormat="1">
       <c r="A134" s="50" t="s">
         <v>12</v>
       </c>
@@ -10129,7 +10167,7 @@
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
     </row>
-    <row r="135" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A135" s="72" t="str">
         <f t="shared" ref="A135:A136" si="21">+A165</f>
         <v>Management Fees</v>
@@ -10155,7 +10193,7 @@
         <v>-532386.86</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A136" s="72" t="str">
         <f t="shared" si="21"/>
         <v>Senior Loans Interests</v>
@@ -10181,7 +10219,7 @@
         <v>-305494.56</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A137" s="72" t="str">
         <f t="shared" ref="A137:A139" si="24">+A167</f>
         <v>Senior Loans Fees</v>
@@ -10207,7 +10245,7 @@
         <v>-55994.3</v>
       </c>
     </row>
-    <row r="138" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A138" s="72" t="str">
         <f t="shared" si="24"/>
         <v>Legal Expenses</v>
@@ -10233,7 +10271,7 @@
         <v>-25191.769999999997</v>
       </c>
     </row>
-    <row r="139" spans="1:6" s="80" customFormat="1" ht="10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" s="80" customFormat="1" ht="10.199999999999999">
       <c r="A139" s="107" t="str">
         <f t="shared" si="24"/>
         <v>Operational - Legal Expenses</v>
@@ -10259,7 +10297,7 @@
         <v>-278.64</v>
       </c>
     </row>
-    <row r="140" spans="1:6" s="80" customFormat="1" ht="10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" s="80" customFormat="1" ht="10.199999999999999">
       <c r="A140" s="107" t="str">
         <f>+A172</f>
         <v>Senior Loans - Legal Expenses</v>
@@ -10285,7 +10323,7 @@
         <v>-24913.129999999997</v>
       </c>
     </row>
-    <row r="141" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A141" s="72" t="str">
         <f>+A177</f>
         <v>Bank and Account Charges</v>
@@ -10311,7 +10349,7 @@
         <v>-995</v>
       </c>
     </row>
-    <row r="142" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A142" s="72" t="str">
         <f t="shared" ref="A142:A145" si="26">+A178</f>
         <v>Credit Committe Meetings Costs</v>
@@ -10337,7 +10375,7 @@
         <v>-3000</v>
       </c>
     </row>
-    <row r="143" spans="1:6" s="38" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" s="38" customFormat="1" ht="13.2" hidden="1">
       <c r="A143" s="72" t="str">
         <f t="shared" si="26"/>
         <v>Advisory Committee Meetings Costs</v>
@@ -10363,7 +10401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A144" s="72" t="str">
         <f t="shared" si="26"/>
         <v>External Audit and Report Expenses</v>
@@ -10389,7 +10427,7 @@
         <v>-10746.68</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A145" s="72" t="str">
         <f t="shared" si="26"/>
         <v>Insurance - D&amp;O</v>
@@ -10415,7 +10453,7 @@
         <v>-5666.68</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A146" s="72" t="str">
         <f>+A182</f>
         <v>TOTAL EXPENSES</v>
@@ -10441,7 +10479,7 @@
         <v>-939475.85000000021</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8">
       <c r="A147" s="23"/>
       <c r="B147" s="71"/>
       <c r="C147" s="71"/>
@@ -10449,7 +10487,7 @@
       <c r="E147" s="71"/>
       <c r="F147" s="71"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8">
       <c r="A148" s="16" t="s">
         <v>118</v>
       </c>
@@ -10474,7 +10512,7 @@
         <v>-235079.91000000015</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8">
       <c r="A149" s="77"/>
       <c r="B149" s="40"/>
       <c r="C149" s="40"/>
@@ -10483,7 +10521,7 @@
       <c r="F149" s="25"/>
       <c r="H149" s="51"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8">
       <c r="A150" s="78" t="s">
         <v>54</v>
       </c>
@@ -10509,7 +10547,7 @@
       </c>
       <c r="H150" s="51"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8">
       <c r="A151" s="10"/>
       <c r="B151" s="41"/>
       <c r="C151" s="41"/>
@@ -10517,7 +10555,7 @@
       <c r="E151" s="41"/>
       <c r="F151" s="72"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8">
       <c r="A152" s="42" t="s">
         <v>119</v>
       </c>
@@ -10543,7 +10581,7 @@
       </c>
       <c r="G152" s="51"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8">
       <c r="A153" s="43"/>
       <c r="B153" s="14"/>
       <c r="C153" s="14"/>
@@ -10551,7 +10589,7 @@
       <c r="E153" s="14"/>
       <c r="F153" s="14"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8">
       <c r="A154" s="43"/>
       <c r="B154" s="128"/>
       <c r="C154" s="128"/>
@@ -10559,7 +10597,7 @@
       <c r="E154" s="128"/>
       <c r="F154" s="84"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8">
       <c r="A155" s="43"/>
       <c r="B155" s="129"/>
       <c r="C155" s="129"/>
@@ -10567,7 +10605,7 @@
       <c r="E155" s="129"/>
       <c r="F155" s="85"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8">
       <c r="A156" s="25" t="s">
         <v>81</v>
       </c>
@@ -10577,7 +10615,7 @@
       <c r="E156" s="70"/>
       <c r="F156" s="36"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8">
       <c r="A157" s="50"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -10585,7 +10623,7 @@
       <c r="E157" s="11"/>
       <c r="F157" s="64"/>
     </row>
-    <row r="158" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" s="38" customFormat="1">
       <c r="A158" s="50" t="s">
         <v>11</v>
       </c>
@@ -10595,7 +10633,7 @@
       <c r="E158" s="11"/>
       <c r="F158" s="64"/>
     </row>
-    <row r="159" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A159" s="72" t="s">
         <v>35</v>
       </c>
@@ -10613,7 +10651,7 @@
       </c>
       <c r="F159" s="89"/>
     </row>
-    <row r="160" spans="1:8" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" s="38" customFormat="1" ht="13.2">
       <c r="A160" s="72" t="s">
         <v>102</v>
       </c>
@@ -10631,7 +10669,7 @@
       </c>
       <c r="F160" s="89"/>
     </row>
-    <row r="161" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A161" s="72" t="s">
         <v>89</v>
       </c>
@@ -10649,7 +10687,7 @@
       </c>
       <c r="F161" s="89"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6">
       <c r="A162" s="50" t="s">
         <v>8</v>
       </c>
@@ -10671,7 +10709,7 @@
       </c>
       <c r="F162" s="36"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6">
       <c r="A163" s="50"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -10679,7 +10717,7 @@
       <c r="E163" s="11"/>
       <c r="F163" s="76"/>
     </row>
-    <row r="164" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" s="38" customFormat="1">
       <c r="A164" s="50" t="s">
         <v>12</v>
       </c>
@@ -10689,7 +10727,7 @@
       <c r="E164" s="11"/>
       <c r="F164" s="36"/>
     </row>
-    <row r="165" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A165" s="72" t="s">
         <v>13</v>
       </c>
@@ -10708,7 +10746,7 @@
       </c>
       <c r="F165" s="111"/>
     </row>
-    <row r="166" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A166" s="72" t="s">
         <v>62</v>
       </c>
@@ -10727,7 +10765,7 @@
       </c>
       <c r="F166" s="111"/>
     </row>
-    <row r="167" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A167" s="72" t="s">
         <v>120</v>
       </c>
@@ -10745,7 +10783,7 @@
       </c>
       <c r="F167" s="111"/>
     </row>
-    <row r="168" spans="1:6" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" s="38" customFormat="1" ht="13.2">
       <c r="A168" s="72" t="s">
         <v>20</v>
       </c>
@@ -10767,7 +10805,7 @@
       </c>
       <c r="F168" s="87"/>
     </row>
-    <row r="169" spans="1:6" s="80" customFormat="1" ht="10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" s="80" customFormat="1" ht="10.199999999999999">
       <c r="A169" s="107" t="s">
         <v>107</v>
       </c>
@@ -10789,7 +10827,7 @@
       </c>
       <c r="F169" s="108"/>
     </row>
-    <row r="170" spans="1:6" s="116" customFormat="1" ht="9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" s="116" customFormat="1" ht="9.6">
       <c r="A170" s="114" t="s">
         <v>131</v>
       </c>
@@ -10807,7 +10845,7 @@
       </c>
       <c r="F170" s="115"/>
     </row>
-    <row r="171" spans="1:6" s="116" customFormat="1" ht="9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" s="116" customFormat="1" ht="9.6">
       <c r="A171" s="114" t="s">
         <v>130</v>
       </c>
@@ -10825,7 +10863,7 @@
       </c>
       <c r="F171" s="115"/>
     </row>
-    <row r="172" spans="1:6" s="80" customFormat="1" ht="10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" s="80" customFormat="1" ht="10.199999999999999">
       <c r="A172" s="107" t="s">
         <v>106</v>
       </c>
@@ -10847,7 +10885,7 @@
       </c>
       <c r="F172" s="108"/>
     </row>
-    <row r="173" spans="1:6" s="116" customFormat="1" ht="9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" s="116" customFormat="1" ht="9.6">
       <c r="A173" s="114" t="s">
         <v>104</v>
       </c>
@@ -10867,7 +10905,7 @@
       </c>
       <c r="F173" s="115"/>
     </row>
-    <row r="174" spans="1:6" s="116" customFormat="1" ht="9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" s="116" customFormat="1" ht="9.6">
       <c r="A174" s="114" t="s">
         <v>117</v>
       </c>
@@ -10885,7 +10923,7 @@
       </c>
       <c r="F174" s="115"/>
     </row>
-    <row r="175" spans="1:6" s="116" customFormat="1" ht="9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" s="116" customFormat="1" ht="9.6">
       <c r="A175" s="114" t="s">
         <v>163</v>
       </c>
@@ -10903,7 +10941,7 @@
       </c>
       <c r="F175" s="115"/>
     </row>
-    <row r="176" spans="1:6" s="116" customFormat="1" ht="9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" s="116" customFormat="1" ht="9.6">
       <c r="A176" s="114" t="s">
         <v>166</v>
       </c>
@@ -10921,7 +10959,7 @@
       </c>
       <c r="F176" s="115"/>
     </row>
-    <row r="177" spans="1:7" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" s="38" customFormat="1" ht="13.2">
       <c r="A177" s="72" t="s">
         <v>23</v>
       </c>
@@ -10939,7 +10977,7 @@
       </c>
       <c r="F177" s="86"/>
     </row>
-    <row r="178" spans="1:7" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" s="38" customFormat="1" ht="13.2">
       <c r="A178" s="72" t="s">
         <v>56</v>
       </c>
@@ -10957,7 +10995,7 @@
       </c>
       <c r="F178" s="86"/>
     </row>
-    <row r="179" spans="1:7" s="38" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" s="38" customFormat="1" ht="13.2" hidden="1">
       <c r="A179" s="72" t="s">
         <v>68</v>
       </c>
@@ -10967,7 +11005,7 @@
       <c r="E179" s="124"/>
       <c r="F179" s="86"/>
     </row>
-    <row r="180" spans="1:7" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" s="38" customFormat="1" ht="13.2">
       <c r="A180" s="72" t="s">
         <v>110</v>
       </c>
@@ -10985,7 +11023,7 @@
       </c>
       <c r="F180" s="86"/>
     </row>
-    <row r="181" spans="1:7" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" s="38" customFormat="1" ht="13.2">
       <c r="A181" s="72" t="s">
         <v>71</v>
       </c>
@@ -11004,7 +11042,7 @@
       <c r="F181" s="86"/>
       <c r="G181" s="148"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7">
       <c r="A182" s="50" t="s">
         <v>14</v>
       </c>
@@ -11026,7 +11064,7 @@
       </c>
       <c r="F182" s="36"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7">
       <c r="A183" s="23"/>
       <c r="B183" s="71"/>
       <c r="C183" s="71"/>
@@ -11034,7 +11072,7 @@
       <c r="E183" s="71"/>
       <c r="F183" s="36"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7">
       <c r="A184" s="16" t="s">
         <v>118</v>
       </c>
@@ -11056,7 +11094,7 @@
       </c>
       <c r="F184" s="84"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7">
       <c r="A185" s="77"/>
       <c r="B185" s="40"/>
       <c r="C185" s="40"/>
@@ -11064,7 +11102,7 @@
       <c r="E185" s="40"/>
       <c r="F185" s="84"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7">
       <c r="A186" s="78" t="s">
         <v>54</v>
       </c>
@@ -11082,7 +11120,7 @@
       </c>
       <c r="F186" s="151"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7">
       <c r="A187" s="10"/>
       <c r="B187" s="41"/>
       <c r="C187" s="41"/>
@@ -11090,7 +11128,7 @@
       <c r="E187" s="41"/>
       <c r="F187" s="84"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7">
       <c r="A188" s="42" t="s">
         <v>119</v>
       </c>
@@ -11111,7 +11149,7 @@
         <v>-611269.3600000001</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7">
       <c r="A190" s="3"/>
       <c r="B190" s="93">
         <f>+B67-B124</f>
@@ -11131,21 +11169,21 @@
       </c>
       <c r="F190" s="90"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5">
       <c r="A193" s="3"/>
       <c r="B193" s="141"/>
       <c r="C193" s="141"/>
       <c r="D193" s="141"/>
       <c r="E193" s="141"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5">
       <c r="A194" s="3"/>
       <c r="B194" s="26"/>
       <c r="C194" s="26"/>
       <c r="D194" s="26"/>
       <c r="E194" s="26"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5">
       <c r="A196" s="3"/>
       <c r="B196" s="93"/>
       <c r="C196" s="93"/>
@@ -11153,7 +11191,7 @@
       <c r="E196" s="93"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -11168,21 +11206,21 @@
       <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="43.54296875" customWidth="1"/>
-    <col min="3" max="3" width="2.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="7" width="13.1796875" customWidth="1"/>
-    <col min="8" max="9" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5546875" customWidth="1"/>
+    <col min="3" max="3" width="2.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="7" width="13.21875" customWidth="1"/>
+    <col min="8" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9">
       <c r="B3" s="170">
         <v>44255</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9">
       <c r="B4" s="163" t="s">
         <v>145</v>
       </c>
@@ -11197,7 +11235,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9">
       <c r="D5" s="166" t="s">
         <v>143</v>
       </c>
@@ -11209,7 +11247,7 @@
       </c>
       <c r="G5" s="166"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9">
       <c r="B7" s="164" t="s">
         <v>135</v>
       </c>
@@ -11228,7 +11266,7 @@
         <v>819.46</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9">
       <c r="B8" s="164" t="s">
         <v>136</v>
       </c>
@@ -11247,7 +11285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9">
       <c r="B9" s="164" t="s">
         <v>137</v>
       </c>
@@ -11265,7 +11303,7 @@
       </c>
       <c r="I9" s="169"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9">
       <c r="B10" s="164" t="s">
         <v>138</v>
       </c>
@@ -11283,7 +11321,7 @@
         <v>23055.555555555555</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9">
       <c r="B11" s="164" t="s">
         <v>139</v>
       </c>
@@ -11300,7 +11338,7 @@
         <v>2638.8888888888891</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" ht="13.8" thickBot="1">
       <c r="D12" s="168">
         <f t="shared" ref="D12:F12" si="1">SUM(D7:D11)</f>
         <v>11513.894444444446</v>
@@ -11326,19 +11364,19 @@
         <v>8.8888888894871343E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="13.8" thickTop="1">
       <c r="D13" s="167"/>
       <c r="E13" s="167"/>
       <c r="F13" s="167"/>
       <c r="G13" s="167"/>
     </row>
-    <row r="16" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9">
       <c r="B16" s="170">
         <f>+B3</f>
         <v>44255</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9">
       <c r="B17" s="163" t="s">
         <v>146</v>
       </c>
@@ -11353,7 +11391,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9">
       <c r="D18" s="166" t="s">
         <v>143</v>
       </c>
@@ -11365,7 +11403,7 @@
       </c>
       <c r="G18" s="166"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9">
       <c r="B20" s="164" t="s">
         <v>135</v>
       </c>
@@ -11384,7 +11422,7 @@
         <v>-58330.985915492958</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9">
       <c r="B21" s="164" t="s">
         <v>136</v>
       </c>
@@ -11403,7 +11441,7 @@
         <v>-58567.071933237901</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9">
       <c r="B22" s="164" t="s">
         <v>137</v>
       </c>
@@ -11423,7 +11461,7 @@
       </c>
       <c r="I22" s="169"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9">
       <c r="B23" s="164" t="s">
         <v>139</v>
       </c>
@@ -11442,7 +11480,7 @@
         <v>-37671.351351351354</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9">
       <c r="B24" s="164" t="s">
         <v>148</v>
       </c>
@@ -11461,7 +11499,7 @@
         <v>-96470.999301187985</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" ht="13.8" thickBot="1">
       <c r="C25" s="168">
         <f>SUM(C20:C24)</f>
         <v>0</v>
@@ -11491,31 +11529,31 @@
         <v>7.6344626140780747E-3</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="13.8" thickTop="1"/>
+    <row r="27" spans="2:9">
       <c r="D27" s="169">
         <f>+D25+D12</f>
         <v>14089.414051461135</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9">
       <c r="D28">
         <f>-'2021'!C137</f>
         <v>14089.42</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9">
       <c r="D29" s="169">
         <f>+D28-D27</f>
         <v>5.9485388646862702E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9">
       <c r="B33" s="170">
         <v>44286</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9">
       <c r="B34" s="163" t="s">
         <v>145</v>
       </c>
@@ -11530,7 +11568,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9">
       <c r="D35" s="166" t="s">
         <v>143</v>
       </c>
@@ -11542,7 +11580,7 @@
       </c>
       <c r="G35" s="166"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9">
       <c r="B37" s="164" t="s">
         <v>135</v>
       </c>
@@ -11561,7 +11599,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9">
       <c r="B38" s="164" t="s">
         <v>136</v>
       </c>
@@ -11580,7 +11618,7 @@
         <v>430.55555555555554</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9">
       <c r="B39" s="164" t="s">
         <v>138</v>
       </c>
@@ -11599,7 +11637,7 @@
         <v>3055.5555555555657</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9">
       <c r="B40" s="164" t="s">
         <v>139</v>
       </c>
@@ -11618,7 +11656,7 @@
         <v>2322.2222222222213</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" ht="13.8" thickBot="1">
       <c r="D41" s="168">
         <f>SUM(D37:D40)</f>
         <v>12744.444444444445</v>
@@ -11644,19 +11682,19 @@
         <v>3.666666665685625E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="13.8" thickTop="1">
       <c r="D42" s="167"/>
       <c r="E42" s="167"/>
       <c r="F42" s="167"/>
       <c r="G42" s="167"/>
     </row>
-    <row r="45" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9">
       <c r="B45" s="170">
         <f>+B33</f>
         <v>44286</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9">
       <c r="B46" s="163" t="s">
         <v>146</v>
       </c>
@@ -11671,7 +11709,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9">
       <c r="D47" s="166" t="s">
         <v>143</v>
       </c>
@@ -11683,7 +11721,7 @@
       </c>
       <c r="G47" s="166"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9">
       <c r="B49" s="164" t="s">
         <v>135</v>
       </c>
@@ -11702,7 +11740,7 @@
         <v>-57676.056338028167</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9">
       <c r="B50" s="164" t="s">
         <v>136</v>
       </c>
@@ -11721,7 +11759,7 @@
         <v>-57904.935087894948</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9">
       <c r="B51" s="164" t="s">
         <v>137</v>
       </c>
@@ -11741,7 +11779,7 @@
       </c>
       <c r="I51" s="169"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9">
       <c r="B52" s="164" t="s">
         <v>139</v>
       </c>
@@ -11760,7 +11798,7 @@
         <v>-37246.846846846849</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9">
       <c r="B53" s="164" t="s">
         <v>148</v>
       </c>
@@ -11779,7 +11817,7 @@
         <v>-95387.840670859543</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" ht="13.8" thickBot="1">
       <c r="C54" s="168">
         <f>SUM(C49:C53)</f>
         <v>0</v>
@@ -11809,31 +11847,31 @@
         <v>1.0296695050783455E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="13.8" thickTop="1"/>
+    <row r="56" spans="2:9">
       <c r="D56" s="169">
         <f>+D54+D41</f>
         <v>15733.021782211981</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9">
       <c r="D57">
         <f>-'2021'!D137</f>
         <v>15733.04</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9">
       <c r="D58" s="169">
         <f>+D57-D56</f>
         <v>1.8217788019683212E-2</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9">
       <c r="B61" s="170">
         <v>44316</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9">
       <c r="B62" s="163" t="s">
         <v>145</v>
       </c>
@@ -11848,7 +11886,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9">
       <c r="D63" s="166" t="s">
         <v>143</v>
       </c>
@@ -11860,7 +11898,7 @@
       </c>
       <c r="G63" s="166"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9">
       <c r="B65" s="164" t="s">
         <v>135</v>
       </c>
@@ -11879,7 +11917,7 @@
         <v>1666.6666666666667</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9">
       <c r="B66" s="164" t="s">
         <v>136</v>
       </c>
@@ -11898,7 +11936,7 @@
         <v>847.22222222222217</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9">
       <c r="B67" s="164" t="s">
         <v>138</v>
       </c>
@@ -11917,7 +11955,7 @@
         <v>10513.888888888901</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9">
       <c r="B68" s="164" t="s">
         <v>139</v>
       </c>
@@ -11936,7 +11974,7 @@
         <v>5238.8888888888869</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:9" ht="13.8" thickBot="1">
       <c r="D69" s="168">
         <f>SUM(D65:D68)</f>
         <v>11208.333333333332</v>
@@ -11962,19 +12000,19 @@
         <v>4.3333333320333622E-2</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" ht="13.8" thickTop="1">
       <c r="D70" s="167"/>
       <c r="E70" s="167"/>
       <c r="F70" s="167"/>
       <c r="G70" s="167"/>
     </row>
-    <row r="73" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9">
       <c r="B73" s="170">
         <f>+B61</f>
         <v>44316</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9">
       <c r="B74" s="163" t="s">
         <v>164</v>
       </c>
@@ -11989,7 +12027,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9">
       <c r="D75" s="166" t="s">
         <v>143</v>
       </c>
@@ -12001,7 +12039,7 @@
       </c>
       <c r="G75" s="166"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9">
       <c r="B77" s="164" t="s">
         <v>135</v>
       </c>
@@ -12020,7 +12058,7 @@
         <v>-57042.25352112676</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9">
       <c r="B78" s="164" t="s">
         <v>136</v>
       </c>
@@ -12039,7 +12077,7 @@
         <v>-57264.15749562758</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9">
       <c r="B79" s="164" t="s">
         <v>165</v>
       </c>
@@ -12059,7 +12097,7 @@
       </c>
       <c r="I79" s="169"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9">
       <c r="B80" s="164" t="s">
         <v>139</v>
       </c>
@@ -12078,7 +12116,7 @@
         <v>-36836.036036036036</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9">
       <c r="B81" s="164" t="s">
         <v>148</v>
       </c>
@@ -12097,7 +12135,7 @@
         <v>-94339.622641509428</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9">
       <c r="B82" s="164" t="s">
         <v>138</v>
       </c>
@@ -12116,7 +12154,7 @@
         <v>-49852.289512555391</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:9" ht="13.8" thickBot="1">
       <c r="C83" s="168">
         <f>SUM(C77:C81)</f>
         <v>0</v>
@@ -12146,20 +12184,20 @@
         <v>8.1920560332946479E-3</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" ht="13.8" thickTop="1"/>
+    <row r="85" spans="2:9">
       <c r="D85" s="169">
         <f>+D83+D69</f>
         <v>14248.215437972332</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9">
       <c r="D86">
         <f>-'2021'!E137</f>
         <v>14248.220000000001</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9">
       <c r="D87" s="169">
         <f>+D86-D85</f>
         <v>4.562027668725932E-3</v>
@@ -12178,19 +12216,19 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="10" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="10.199999999999999" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="37" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" style="37" customWidth="1"/>
-    <col min="3" max="4" width="15.26953125" style="57" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" style="57" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" style="37" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" style="37" customWidth="1"/>
-    <col min="8" max="8" width="15.453125" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="11.453125" style="37"/>
+    <col min="1" max="1" width="11.5546875" style="37" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="37" customWidth="1"/>
+    <col min="3" max="4" width="15.21875" style="57" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" style="57" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" style="37" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="37" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="36">
       <c r="A1" s="32" t="s">
         <v>36</v>
       </c>
@@ -12210,7 +12248,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" outlineLevel="1">
       <c r="A2" s="92" t="s">
         <v>33</v>
       </c>
@@ -12235,7 +12273,7 @@
       </c>
       <c r="I2" s="88"/>
     </row>
-    <row r="3" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" outlineLevel="1">
       <c r="A3" s="92"/>
       <c r="B3" s="37" t="s">
         <v>153</v>
@@ -12258,7 +12296,7 @@
       </c>
       <c r="I3" s="88"/>
     </row>
-    <row r="4" spans="1:9" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="313" t="s">
         <v>40</v>
       </c>
@@ -12285,7 +12323,7 @@
       </c>
       <c r="I4" s="88"/>
     </row>
-    <row r="5" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" outlineLevel="1">
       <c r="B5" s="37" t="s">
         <v>49</v>
       </c>
@@ -12307,7 +12345,7 @@
       </c>
       <c r="I5" s="88"/>
     </row>
-    <row r="6" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" outlineLevel="1">
       <c r="A6" s="92" t="s">
         <v>30</v>
       </c>
@@ -12332,7 +12370,7 @@
       </c>
       <c r="I6" s="88"/>
     </row>
-    <row r="7" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" outlineLevel="1">
       <c r="A7" s="92"/>
       <c r="B7" s="37" t="s">
         <v>79</v>
@@ -12355,7 +12393,7 @@
       </c>
       <c r="I7" s="88"/>
     </row>
-    <row r="8" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" outlineLevel="1">
       <c r="B8" s="100" t="s">
         <v>154</v>
       </c>
@@ -12377,7 +12415,7 @@
       </c>
       <c r="I8" s="88"/>
     </row>
-    <row r="9" spans="1:9" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="313" t="s">
         <v>43</v>
       </c>
@@ -12405,7 +12443,7 @@
       </c>
       <c r="I9" s="88"/>
     </row>
-    <row r="10" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" outlineLevel="1">
       <c r="A10" s="92" t="s">
         <v>27</v>
       </c>
@@ -12431,7 +12469,7 @@
       <c r="G10" s="88"/>
       <c r="I10" s="88"/>
     </row>
-    <row r="11" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" outlineLevel="1">
       <c r="A11" s="92"/>
       <c r="B11" s="37" t="s">
         <v>156</v>
@@ -12455,7 +12493,7 @@
       <c r="G11" s="88"/>
       <c r="I11" s="88"/>
     </row>
-    <row r="12" spans="1:9" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="313" t="s">
         <v>45</v>
       </c>
@@ -12483,7 +12521,7 @@
       </c>
       <c r="I12" s="88"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="92" t="s">
         <v>34</v>
       </c>
@@ -12509,7 +12547,7 @@
       <c r="G13" s="88"/>
       <c r="I13" s="88"/>
     </row>
-    <row r="14" spans="1:9" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="313" t="s">
         <v>44</v>
       </c>
@@ -12537,7 +12575,7 @@
       </c>
       <c r="I14" s="88"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="92" t="s">
         <v>63</v>
       </c>
@@ -12563,7 +12601,7 @@
       <c r="G15" s="88"/>
       <c r="I15" s="88"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="92"/>
       <c r="B16" s="37" t="s">
         <v>162</v>
@@ -12587,7 +12625,7 @@
       <c r="G16" s="88"/>
       <c r="I16" s="88"/>
     </row>
-    <row r="17" spans="1:9" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="313" t="s">
         <v>64</v>
       </c>
@@ -12614,7 +12652,7 @@
       </c>
       <c r="I17" s="88"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="92" t="s">
         <v>29</v>
       </c>
@@ -12641,7 +12679,7 @@
       <c r="H18" s="91"/>
       <c r="I18" s="88"/>
     </row>
-    <row r="19" spans="1:9" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="313" t="s">
         <v>42</v>
       </c>
@@ -12668,7 +12706,7 @@
       </c>
       <c r="I19" s="88"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="92" t="s">
         <v>48</v>
       </c>
@@ -12694,7 +12732,7 @@
       <c r="G20" s="88"/>
       <c r="I20" s="88"/>
     </row>
-    <row r="21" spans="1:9" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="313" t="s">
         <v>46</v>
       </c>
@@ -12721,7 +12759,7 @@
       </c>
       <c r="I21" s="88"/>
     </row>
-    <row r="22" spans="1:9" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="12">
       <c r="A22" s="315" t="s">
         <v>47</v>
       </c>
@@ -12748,22 +12786,22 @@
       </c>
       <c r="I22" s="88"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="F23" s="91"/>
       <c r="G23" s="99"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="F24" s="91"/>
       <c r="G24" s="91"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="F25" s="57">
         <f>+'2021'!E11</f>
         <v>29733148.460000001</v>
       </c>
       <c r="G25" s="91"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="D26" s="58" t="s">
         <v>50</v>
       </c>
@@ -12774,42 +12812,42 @@
       </c>
       <c r="G26" s="91"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="D27" s="58"/>
       <c r="E27" s="58"/>
       <c r="F27" s="74"/>
       <c r="G27" s="91"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="G28" s="91"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="G29" s="91"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="F30" s="91"/>
       <c r="G30" s="91"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="F31" s="88"/>
       <c r="G31" s="91"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="F32" s="91"/>
       <c r="G32" s="91"/>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:6">
       <c r="C33" s="102"/>
       <c r="D33" s="102"/>
       <c r="E33" s="102"/>
       <c r="F33" s="94"/>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:6">
       <c r="C34" s="102"/>
       <c r="D34" s="102"/>
       <c r="E34" s="102"/>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:6">
       <c r="C36" s="91"/>
       <c r="D36" s="91"/>
       <c r="E36" s="91"/>
@@ -12840,17 +12878,17 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="179"/>
-    <col min="2" max="2" width="21.36328125" style="179" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.90625" style="179" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" style="179" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.36328125" style="179" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="179"/>
+    <col min="1" max="1" width="8.77734375" style="179"/>
+    <col min="2" max="2" width="21.33203125" style="179" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="179" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="179" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="179" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.77734375" style="179"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="178" t="s">
         <v>167</v>
       </c>
@@ -12868,7 +12906,7 @@
       </c>
       <c r="F1" s="178"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="179">
         <v>0</v>
       </c>
@@ -12885,7 +12923,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="179">
         <v>1</v>
       </c>
@@ -12902,7 +12940,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="179">
         <v>2</v>
       </c>
@@ -12919,7 +12957,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="179">
         <v>3</v>
       </c>
@@ -12936,7 +12974,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="179">
         <v>4</v>
       </c>
@@ -12953,7 +12991,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="179">
         <v>5</v>
       </c>
@@ -12970,7 +13008,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="179">
         <v>6</v>
       </c>
@@ -12987,7 +13025,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="179">
         <v>7</v>
       </c>
@@ -13004,7 +13042,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="179">
         <v>8</v>
       </c>
@@ -13021,7 +13059,7 @@
         <v>840000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="179">
         <v>9</v>
       </c>
@@ -13038,7 +13076,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="179">
         <v>10</v>
       </c>
@@ -13055,7 +13093,7 @@
         <v>2800000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="179">
         <v>11</v>
       </c>
@@ -13072,28 +13110,28 @@
         <v>1900000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="312"/>
       <c r="B14" s="312"/>
       <c r="C14" s="312"/>
       <c r="D14" s="312"/>
       <c r="E14" s="312"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="312"/>
       <c r="B15" s="312"/>
       <c r="C15" s="312"/>
       <c r="D15" s="312"/>
       <c r="E15" s="312"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="312"/>
       <c r="B16" s="312"/>
       <c r="C16" s="312"/>
       <c r="D16" s="312"/>
       <c r="E16" s="312"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="312"/>
       <c r="B17" s="312"/>
       <c r="C17" s="312"/>
@@ -13113,62 +13151,62 @@
   </sheetPr>
   <dimension ref="A1:AU165"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="AD41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4" style="181" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.7265625" style="181" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" style="181" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.54296875" style="181" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6328125" style="181" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.26953125" style="181" customWidth="1"/>
-    <col min="7" max="7" width="6.26953125" style="181" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6328125" style="181" customWidth="1"/>
-    <col min="9" max="9" width="4.90625" style="181" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.77734375" style="181" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="181" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" style="181" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="181" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" style="181" customWidth="1"/>
+    <col min="7" max="7" width="6.21875" style="181" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="181" customWidth="1"/>
+    <col min="9" max="9" width="4.88671875" style="181" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="181" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="182" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.7265625" style="182" customWidth="1"/>
-    <col min="13" max="13" width="7.08984375" style="182" customWidth="1"/>
-    <col min="14" max="14" width="7.90625" style="181" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.36328125" style="181" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.7265625" style="181" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.77734375" style="182" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" style="182" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" style="181" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.33203125" style="181" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.77734375" style="181" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5" style="181" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.1796875" style="181" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.81640625" style="181" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="8.7265625" style="181" customWidth="1"/>
-    <col min="23" max="23" width="22.26953125" style="181" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.1796875" style="181" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="32.7265625" style="181" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.453125" style="181" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.453125" style="181" customWidth="1"/>
-    <col min="28" max="28" width="2.7265625" style="181" customWidth="1"/>
-    <col min="29" max="29" width="34.7265625" style="181" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.81640625" style="181" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="12.1796875" style="181" customWidth="1"/>
-    <col min="34" max="34" width="14.1796875" style="181" customWidth="1"/>
-    <col min="35" max="35" width="18.453125" style="181" customWidth="1"/>
-    <col min="36" max="36" width="12.81640625" style="181" customWidth="1"/>
+    <col min="18" max="18" width="5.21875" style="181" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.77734375" style="181" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="8.77734375" style="181" customWidth="1"/>
+    <col min="23" max="23" width="22.21875" style="181" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.21875" style="181" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="32.77734375" style="181" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.44140625" style="181" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.44140625" style="181" customWidth="1"/>
+    <col min="28" max="28" width="2.77734375" style="181" customWidth="1"/>
+    <col min="29" max="29" width="34.77734375" style="181" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.77734375" style="181" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="12.21875" style="181" customWidth="1"/>
+    <col min="34" max="34" width="14.21875" style="181" customWidth="1"/>
+    <col min="35" max="35" width="18.44140625" style="181" customWidth="1"/>
+    <col min="36" max="36" width="12.77734375" style="181" customWidth="1"/>
     <col min="37" max="37" width="9" style="181" customWidth="1"/>
-    <col min="38" max="38" width="7.81640625" style="181" customWidth="1"/>
-    <col min="39" max="39" width="8.81640625" style="181" customWidth="1"/>
-    <col min="40" max="40" width="12.1796875" style="181" customWidth="1"/>
-    <col min="41" max="41" width="11.453125" style="181"/>
-    <col min="42" max="42" width="3.453125" style="181" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.453125" style="181" customWidth="1"/>
-    <col min="44" max="44" width="10.81640625" style="181" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.77734375" style="181" customWidth="1"/>
+    <col min="39" max="39" width="8.77734375" style="181" customWidth="1"/>
+    <col min="40" max="40" width="12.21875" style="181" customWidth="1"/>
+    <col min="41" max="41" width="11.44140625" style="181"/>
+    <col min="42" max="42" width="3.44140625" style="181" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.44140625" style="181" customWidth="1"/>
+    <col min="44" max="44" width="10.77734375" style="181" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="7" style="181" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.7265625" style="181" customWidth="1"/>
-    <col min="47" max="47" width="13.81640625" style="181" customWidth="1"/>
-    <col min="48" max="16384" width="11.453125" style="181"/>
+    <col min="46" max="46" width="8.77734375" style="181" customWidth="1"/>
+    <col min="47" max="47" width="13.77734375" style="181" customWidth="1"/>
+    <col min="48" max="16384" width="11.44140625" style="181"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42">
       <c r="AA1" s="183"/>
     </row>
-    <row r="2" spans="1:42" s="184" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" s="184" customFormat="1" ht="38.4">
       <c r="B2" s="185"/>
       <c r="C2" s="185" t="s">
         <v>180</v>
@@ -13203,47 +13241,47 @@
       <c r="M2" s="187" t="s">
         <v>189</v>
       </c>
-      <c r="N2" s="187" t="s">
+      <c r="N2" s="322" t="s">
+        <v>292</v>
+      </c>
+      <c r="O2" s="187" t="s">
         <v>190</v>
       </c>
-      <c r="O2" s="187" t="s">
+      <c r="P2" s="187" t="s">
         <v>191</v>
       </c>
-      <c r="P2" s="187" t="s">
+      <c r="Q2" s="187" t="s">
         <v>192</v>
       </c>
-      <c r="Q2" s="187" t="s">
+      <c r="R2" s="186" t="s">
         <v>193</v>
       </c>
-      <c r="R2" s="186" t="s">
+      <c r="S2" s="186" t="s">
         <v>194</v>
-      </c>
-      <c r="S2" s="186" t="s">
-        <v>195</v>
       </c>
       <c r="T2" s="188"/>
       <c r="U2" s="188"/>
       <c r="V2" s="189"/>
       <c r="W2" s="190" t="s">
+        <v>195</v>
+      </c>
+      <c r="X2" s="190" t="s">
         <v>196</v>
       </c>
-      <c r="X2" s="190" t="s">
+      <c r="Y2" s="190" t="s">
         <v>197</v>
       </c>
-      <c r="Y2" s="190" t="s">
+      <c r="Z2" s="190" t="s">
         <v>198</v>
       </c>
-      <c r="Z2" s="190" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" s="202" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:42" s="202" customFormat="1" ht="11.55" customHeight="1">
       <c r="A3" s="191"/>
       <c r="B3" s="192">
         <v>1</v>
       </c>
       <c r="C3" s="192" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D3" s="192" t="s">
         <v>33</v>
@@ -13273,25 +13311,25 @@
         <v>4.5695447904062691E-3</v>
       </c>
       <c r="M3" s="200" t="s">
+        <v>200</v>
+      </c>
+      <c r="N3" s="200" t="s">
         <v>201</v>
       </c>
-      <c r="N3" s="200" t="s">
+      <c r="O3" s="200" t="s">
+        <v>201</v>
+      </c>
+      <c r="P3" s="200" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q3" s="200" t="s">
         <v>202</v>
-      </c>
-      <c r="O3" s="200" t="s">
-        <v>202</v>
-      </c>
-      <c r="P3" s="200" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q3" s="200" t="s">
-        <v>203</v>
       </c>
       <c r="R3" s="201">
         <v>0.47</v>
       </c>
       <c r="S3" s="201" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T3" s="189"/>
       <c r="V3" s="189"/>
@@ -13320,14 +13358,14 @@
       <c r="AO3" s="207"/>
       <c r="AP3" s="207"/>
     </row>
-    <row r="4" spans="1:42" s="202" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:42" s="202" customFormat="1" ht="11.55" customHeight="1">
       <c r="A4" s="191"/>
       <c r="B4" s="192">
         <f>+B3+1</f>
         <v>2</v>
       </c>
       <c r="C4" s="192" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4" s="192" t="s">
         <v>33</v>
@@ -13357,25 +13395,25 @@
         <v>1.0546143729520237E-2</v>
       </c>
       <c r="M4" s="200" t="s">
+        <v>200</v>
+      </c>
+      <c r="N4" s="200" t="s">
+        <v>205</v>
+      </c>
+      <c r="O4" s="200" t="s">
         <v>201</v>
       </c>
-      <c r="N4" s="200" t="s">
-        <v>206</v>
-      </c>
-      <c r="O4" s="200" t="s">
+      <c r="P4" s="200" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q4" s="200" t="s">
         <v>202</v>
       </c>
-      <c r="P4" s="200" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q4" s="200" t="s">
+      <c r="R4" s="192" t="s">
         <v>203</v>
       </c>
-      <c r="R4" s="192" t="s">
-        <v>204</v>
-      </c>
       <c r="S4" s="208" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T4" s="189"/>
       <c r="U4" s="189"/>
@@ -13405,7 +13443,7 @@
       <c r="AO4" s="207"/>
       <c r="AP4" s="207"/>
     </row>
-    <row r="5" spans="1:42" s="202" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" s="202" customFormat="1" ht="11.55" customHeight="1">
       <c r="A5" s="191"/>
       <c r="B5" s="192">
         <f t="shared" ref="B5:B13" si="0">+B4+1</f>
@@ -13442,25 +13480,25 @@
         <v>2.2645574759971192E-2</v>
       </c>
       <c r="M5" s="200" t="s">
+        <v>200</v>
+      </c>
+      <c r="N5" s="200" t="s">
         <v>201</v>
       </c>
-      <c r="N5" s="200" t="s">
-        <v>202</v>
-      </c>
       <c r="O5" s="200" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P5" s="200" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q5" s="200">
         <v>2020</v>
       </c>
       <c r="R5" s="201" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S5" s="201" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T5" s="189"/>
       <c r="U5" s="189"/>
@@ -13490,7 +13528,7 @@
       <c r="AO5" s="207"/>
       <c r="AP5" s="207"/>
     </row>
-    <row r="6" spans="1:42" s="202" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:42" s="202" customFormat="1" ht="11.55" customHeight="1">
       <c r="A6" s="191"/>
       <c r="B6" s="192">
         <f t="shared" si="0"/>
@@ -13527,16 +13565,16 @@
         <v>5.7848344387347397E-4</v>
       </c>
       <c r="M6" s="200" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N6" s="200" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O6" s="200" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P6" s="200" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q6" s="200">
         <v>2018</v>
@@ -13545,7 +13583,7 @@
         <v>0.59</v>
       </c>
       <c r="S6" s="201" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T6" s="189"/>
       <c r="U6" s="189"/>
@@ -13575,7 +13613,7 @@
       <c r="AO6" s="207"/>
       <c r="AP6" s="207"/>
     </row>
-    <row r="7" spans="1:42" s="202" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:42" s="202" customFormat="1" ht="11.55" customHeight="1">
       <c r="A7" s="191"/>
       <c r="B7" s="192">
         <f t="shared" si="0"/>
@@ -13612,25 +13650,25 @@
         <v>6.5556266274076121E-3</v>
       </c>
       <c r="M7" s="200" t="s">
+        <v>200</v>
+      </c>
+      <c r="N7" s="200" t="s">
         <v>201</v>
       </c>
-      <c r="N7" s="200" t="s">
+      <c r="O7" s="200" t="s">
+        <v>201</v>
+      </c>
+      <c r="P7" s="195" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q7" s="200" t="s">
         <v>202</v>
-      </c>
-      <c r="O7" s="200" t="s">
-        <v>202</v>
-      </c>
-      <c r="P7" s="195" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q7" s="200" t="s">
-        <v>203</v>
       </c>
       <c r="R7" s="201">
         <v>0.43</v>
       </c>
       <c r="S7" s="201" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T7" s="189"/>
       <c r="U7" s="209"/>
@@ -13660,7 +13698,7 @@
       <c r="AO7" s="207"/>
       <c r="AP7" s="207"/>
     </row>
-    <row r="8" spans="1:42" s="202" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:42" s="202" customFormat="1" ht="11.55" customHeight="1">
       <c r="A8" s="191"/>
       <c r="B8" s="192">
         <f t="shared" si="0"/>
@@ -13697,16 +13735,16 @@
         <v>2.9469718499072098E-3</v>
       </c>
       <c r="M8" s="199" t="s">
+        <v>200</v>
+      </c>
+      <c r="N8" s="200" t="s">
         <v>201</v>
       </c>
-      <c r="N8" s="200" t="s">
-        <v>202</v>
-      </c>
       <c r="O8" s="200" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P8" s="195" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="200">
         <v>2019</v>
@@ -13715,7 +13753,7 @@
         <v>0.35</v>
       </c>
       <c r="S8" s="201" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T8" s="189"/>
       <c r="U8" s="209"/>
@@ -13745,17 +13783,17 @@
       <c r="AO8" s="207"/>
       <c r="AP8" s="207"/>
     </row>
-    <row r="9" spans="1:42" s="202" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:42" s="202" customFormat="1" ht="11.55" customHeight="1">
       <c r="A9" s="191"/>
       <c r="B9" s="192">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C9" s="192" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="192" t="s">
         <v>208</v>
-      </c>
-      <c r="D9" s="192" t="s">
-        <v>209</v>
       </c>
       <c r="E9" s="193">
         <v>44228</v>
@@ -13782,22 +13820,22 @@
         <v>1.327665669106155E-2</v>
       </c>
       <c r="M9" s="199" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N9" s="200" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O9" s="200" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P9" s="200" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q9" s="200">
         <v>2018</v>
       </c>
       <c r="R9" s="201" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S9" s="201">
         <v>0.19</v>
@@ -13830,14 +13868,14 @@
       <c r="AO9" s="207"/>
       <c r="AP9" s="207"/>
     </row>
-    <row r="10" spans="1:42" s="202" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:42" s="202" customFormat="1" ht="11.55" customHeight="1">
       <c r="A10" s="191"/>
       <c r="B10" s="192">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C10" s="210" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D10" s="192" t="s">
         <v>27</v>
@@ -13867,25 +13905,25 @@
         <v>0</v>
       </c>
       <c r="M10" s="199" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N10" s="200" t="s">
+        <v>201</v>
+      </c>
+      <c r="O10" s="200" t="s">
+        <v>205</v>
+      </c>
+      <c r="P10" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q10" s="200" t="s">
         <v>202</v>
       </c>
-      <c r="O10" s="200" t="s">
-        <v>206</v>
-      </c>
-      <c r="P10" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q10" s="200" t="s">
+      <c r="R10" s="201" t="s">
         <v>203</v>
       </c>
-      <c r="R10" s="201" t="s">
-        <v>204</v>
-      </c>
       <c r="S10" s="201" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T10" s="189"/>
       <c r="U10" s="209"/>
@@ -13915,7 +13953,7 @@
       <c r="AO10" s="207"/>
       <c r="AP10" s="207"/>
     </row>
-    <row r="11" spans="1:42" s="202" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:42" s="202" customFormat="1" ht="11.55" customHeight="1">
       <c r="A11" s="191"/>
       <c r="B11" s="192">
         <f t="shared" si="0"/>
@@ -13952,31 +13990,31 @@
         <v>6.8574455874215517E-3</v>
       </c>
       <c r="M11" s="199" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N11" s="200" t="s">
+        <v>201</v>
+      </c>
+      <c r="O11" s="200" t="s">
+        <v>201</v>
+      </c>
+      <c r="P11" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q11" s="200" t="s">
         <v>202</v>
       </c>
-      <c r="O11" s="200" t="s">
-        <v>202</v>
-      </c>
-      <c r="P11" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q11" s="200" t="s">
+      <c r="R11" s="201" t="s">
         <v>203</v>
       </c>
-      <c r="R11" s="201" t="s">
-        <v>204</v>
-      </c>
       <c r="S11" s="201" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T11" s="189"/>
       <c r="U11" s="209"/>
       <c r="V11" s="209"/>
       <c r="W11" s="203" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X11" s="204">
         <v>500000</v>
@@ -14000,7 +14038,7 @@
       <c r="AO11" s="207"/>
       <c r="AP11" s="207"/>
     </row>
-    <row r="12" spans="1:42" s="202" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:42" s="202" customFormat="1" ht="11.55" customHeight="1">
       <c r="A12" s="191"/>
       <c r="B12" s="192">
         <f t="shared" si="0"/>
@@ -14037,31 +14075,31 @@
         <v>3.4466711897430543E-3</v>
       </c>
       <c r="M12" s="199" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N12" s="200" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O12" s="200" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P12" s="195" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q12" s="200">
         <v>2019</v>
       </c>
       <c r="R12" s="201" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S12" s="211" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T12" s="189"/>
       <c r="U12" s="189"/>
       <c r="V12" s="209"/>
       <c r="W12" s="203" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="X12" s="204">
         <v>2800000</v>
@@ -14085,7 +14123,7 @@
       <c r="AO12" s="207"/>
       <c r="AP12" s="207"/>
     </row>
-    <row r="13" spans="1:42" s="202" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:42" s="202" customFormat="1" ht="11.55" customHeight="1">
       <c r="A13" s="191"/>
       <c r="B13" s="192">
         <f t="shared" si="0"/>
@@ -14122,25 +14160,25 @@
         <v>5.2903339221642866E-5</v>
       </c>
       <c r="M13" s="200" t="s">
+        <v>200</v>
+      </c>
+      <c r="N13" s="200" t="s">
         <v>201</v>
       </c>
-      <c r="N13" s="200" t="s">
-        <v>202</v>
-      </c>
       <c r="O13" s="200" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P13" s="195" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="200">
         <v>2018</v>
       </c>
       <c r="R13" s="201" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S13" s="211" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T13" s="189"/>
       <c r="U13" s="209"/>
@@ -14170,7 +14208,7 @@
       <c r="AO13" s="207"/>
       <c r="AP13" s="207"/>
     </row>
-    <row r="14" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1">
       <c r="A14" s="212"/>
       <c r="B14" s="213"/>
       <c r="C14" s="213"/>
@@ -14218,7 +14256,7 @@
       <c r="AO14" s="230"/>
       <c r="AP14" s="230"/>
     </row>
-    <row r="15" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1">
       <c r="A15" s="212"/>
       <c r="B15" s="213"/>
       <c r="C15" s="213"/>
@@ -14258,7 +14296,7 @@
       <c r="AO15" s="230"/>
       <c r="AP15" s="230"/>
     </row>
-    <row r="16" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1">
       <c r="A16" s="212"/>
       <c r="B16" s="213"/>
       <c r="C16" s="213"/>
@@ -14298,7 +14336,7 @@
       <c r="AO16" s="230"/>
       <c r="AP16" s="230"/>
     </row>
-    <row r="17" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1">
       <c r="A17" s="212"/>
       <c r="B17" s="213"/>
       <c r="C17" s="213"/>
@@ -14338,7 +14376,7 @@
       <c r="AO17" s="230"/>
       <c r="AP17" s="230"/>
     </row>
-    <row r="18" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1">
       <c r="A18" s="212"/>
       <c r="B18" s="213"/>
       <c r="C18" s="213"/>
@@ -14360,7 +14398,7 @@
         <v>0.43</v>
       </c>
       <c r="S18" s="223" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T18" s="189"/>
       <c r="U18" s="224"/>
@@ -14391,7 +14429,7 @@
       <c r="AO18" s="230"/>
       <c r="AP18" s="230"/>
     </row>
-    <row r="19" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1">
       <c r="A19" s="212"/>
       <c r="B19" s="234"/>
       <c r="C19" s="234"/>
@@ -14413,7 +14451,7 @@
         <v>0.59</v>
       </c>
       <c r="S19" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T19" s="189"/>
       <c r="U19" s="224"/>
@@ -14432,7 +14470,7 @@
       <c r="AO19" s="230"/>
       <c r="AP19" s="230"/>
     </row>
-    <row r="20" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1">
       <c r="A20" s="212"/>
       <c r="B20" s="181"/>
       <c r="C20" s="181"/>
@@ -14454,7 +14492,7 @@
         <v>0.34</v>
       </c>
       <c r="S20" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T20" s="189"/>
       <c r="U20" s="224"/>
@@ -14473,7 +14511,7 @@
       <c r="AO20" s="230"/>
       <c r="AP20" s="230"/>
     </row>
-    <row r="21" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1">
       <c r="A21" s="212"/>
       <c r="B21" s="181"/>
       <c r="C21" s="181"/>
@@ -14482,7 +14520,7 @@
       <c r="F21" s="181"/>
       <c r="G21" s="245"/>
       <c r="H21" s="181" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I21" s="181">
         <f>+COUNTIF($H$3:$H$13,"&lt;=20%")</f>
@@ -14490,7 +14528,7 @@
       </c>
       <c r="J21" s="181"/>
       <c r="K21" s="181" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L21" s="181">
         <f>+COUNTIF($I$3:$I$13,"&lt;=20%")</f>
@@ -14502,10 +14540,10 @@
       <c r="P21" s="181"/>
       <c r="Q21" s="181"/>
       <c r="R21" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S21" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T21" s="189"/>
       <c r="U21" s="224"/>
@@ -14524,7 +14562,7 @@
       <c r="AO21" s="230"/>
       <c r="AP21" s="230"/>
     </row>
-    <row r="22" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1">
       <c r="A22" s="212"/>
       <c r="B22" s="181"/>
       <c r="C22" s="181"/>
@@ -14533,7 +14571,7 @@
       <c r="F22" s="181"/>
       <c r="G22" s="245"/>
       <c r="H22" s="181" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I22" s="181">
         <f>+COUNTIFS($H$3:$H$13,"&gt;20%",$H$3:$H$13,"&lt;=40%")</f>
@@ -14541,7 +14579,7 @@
       </c>
       <c r="J22" s="181"/>
       <c r="K22" s="181" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L22" s="181">
         <f>+COUNTIFS($I$3:$I$13,"&gt;20%",$I$3:$I$13,"&lt;=40%")</f>
@@ -14553,10 +14591,10 @@
       <c r="P22" s="181"/>
       <c r="Q22" s="181"/>
       <c r="R22" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S22" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T22" s="189"/>
       <c r="U22" s="224"/>
@@ -14575,7 +14613,7 @@
       <c r="AO22" s="230"/>
       <c r="AP22" s="230"/>
     </row>
-    <row r="23" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1">
       <c r="A23" s="212"/>
       <c r="B23" s="181"/>
       <c r="C23" s="181"/>
@@ -14584,7 +14622,7 @@
       <c r="F23" s="181"/>
       <c r="G23" s="245"/>
       <c r="H23" s="181" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I23" s="181">
         <f>+COUNTIFS($H$3:$H$13,"&gt;40%",$H$3:$H$13,"&lt;=60%")</f>
@@ -14592,7 +14630,7 @@
       </c>
       <c r="J23" s="181"/>
       <c r="K23" s="181" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L23" s="181">
         <f>+COUNTIFS($I$3:$I$13,"&gt;40%",$I$3:$I$13,"&lt;=60%")</f>
@@ -14604,10 +14642,10 @@
       <c r="P23" s="181"/>
       <c r="Q23" s="181"/>
       <c r="R23" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S23" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T23" s="189"/>
       <c r="U23" s="224"/>
@@ -14626,7 +14664,7 @@
       <c r="AO23" s="230"/>
       <c r="AP23" s="230"/>
     </row>
-    <row r="24" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1">
       <c r="A24" s="212"/>
       <c r="B24" s="181"/>
       <c r="C24" s="181"/>
@@ -14635,7 +14673,7 @@
       <c r="F24" s="181"/>
       <c r="G24" s="181"/>
       <c r="H24" s="181" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I24" s="181">
         <f>+COUNTIFS($H$3:$H$13,"&gt;60%",$H$3:$H$13,"&lt;=80%")</f>
@@ -14643,7 +14681,7 @@
       </c>
       <c r="J24" s="181"/>
       <c r="K24" s="181" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L24" s="181">
         <f>+COUNTIFS($I$3:$I$13,"&gt;60%",$I$3:$I$13,"&lt;=80%")</f>
@@ -14655,10 +14693,10 @@
       <c r="P24" s="181"/>
       <c r="Q24" s="181"/>
       <c r="R24" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S24" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T24" s="189"/>
       <c r="U24" s="224"/>
@@ -14677,7 +14715,7 @@
       <c r="AO24" s="230"/>
       <c r="AP24" s="230"/>
     </row>
-    <row r="25" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1">
       <c r="A25" s="212"/>
       <c r="B25" s="181"/>
       <c r="C25" s="181"/>
@@ -14686,7 +14724,7 @@
       <c r="F25" s="181"/>
       <c r="G25" s="181"/>
       <c r="H25" s="181" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I25" s="181">
         <f>+COUNTIFS($H$3:$H$13,"&gt;80%",$H$3:$H$13,"&lt;=100%")</f>
@@ -14694,7 +14732,7 @@
       </c>
       <c r="J25" s="181"/>
       <c r="K25" s="181" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L25" s="181">
         <f>+COUNTIFS($I$3:$I$13,"&gt;80%",$I$3:$I$13,"&lt;=100%")</f>
@@ -14706,10 +14744,10 @@
       <c r="P25" s="181"/>
       <c r="Q25" s="181"/>
       <c r="R25" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S25" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T25" s="189"/>
       <c r="U25" s="224"/>
@@ -14728,7 +14766,7 @@
       <c r="AO25" s="230"/>
       <c r="AP25" s="230"/>
     </row>
-    <row r="26" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1">
       <c r="A26" s="212"/>
       <c r="B26" s="181"/>
       <c r="C26" s="181"/>
@@ -14737,12 +14775,12 @@
       <c r="F26" s="181"/>
       <c r="G26" s="181"/>
       <c r="H26" s="181" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I26" s="181"/>
       <c r="J26" s="181"/>
       <c r="K26" s="181" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L26" s="181"/>
       <c r="M26" s="181"/>
@@ -14751,10 +14789,10 @@
       <c r="P26" s="181"/>
       <c r="Q26" s="181"/>
       <c r="R26" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S26" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T26" s="189"/>
       <c r="U26" s="224"/>
@@ -14773,7 +14811,7 @@
       <c r="AO26" s="230"/>
       <c r="AP26" s="230"/>
     </row>
-    <row r="27" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1">
       <c r="A27" s="212"/>
       <c r="B27" s="181"/>
       <c r="C27" s="181"/>
@@ -14792,7 +14830,7 @@
       <c r="P27" s="181"/>
       <c r="Q27" s="181"/>
       <c r="R27" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S27" s="222">
         <v>0.19</v>
@@ -14814,7 +14852,7 @@
       <c r="AO27" s="230"/>
       <c r="AP27" s="230"/>
     </row>
-    <row r="28" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1">
       <c r="A28" s="212"/>
       <c r="B28" s="181"/>
       <c r="C28" s="181"/>
@@ -14833,10 +14871,10 @@
       <c r="P28" s="181"/>
       <c r="Q28" s="181"/>
       <c r="R28" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S28" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T28" s="189"/>
       <c r="U28" s="224"/>
@@ -14855,10 +14893,10 @@
       <c r="AO28" s="230"/>
       <c r="AP28" s="230"/>
     </row>
-    <row r="29" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1">
       <c r="A29" s="212"/>
       <c r="B29" s="248" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C29" s="181"/>
       <c r="D29" s="181"/>
@@ -14876,10 +14914,10 @@
       <c r="P29" s="181"/>
       <c r="Q29" s="181"/>
       <c r="R29" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S29" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T29" s="189"/>
       <c r="U29" s="224"/>
@@ -14898,10 +14936,10 @@
       <c r="AO29" s="230"/>
       <c r="AP29" s="230"/>
     </row>
-    <row r="30" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1">
       <c r="A30" s="212"/>
       <c r="B30" s="248" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C30" s="181"/>
       <c r="D30" s="181"/>
@@ -14919,10 +14957,10 @@
       <c r="P30" s="181"/>
       <c r="Q30" s="181"/>
       <c r="R30" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S30" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T30" s="189"/>
       <c r="U30" s="224"/>
@@ -14941,10 +14979,10 @@
       <c r="AO30" s="230"/>
       <c r="AP30" s="230"/>
     </row>
-    <row r="31" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1">
       <c r="A31" s="212"/>
       <c r="B31" s="248" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31" s="181"/>
       <c r="D31" s="235"/>
@@ -14962,10 +15000,10 @@
       <c r="P31" s="181"/>
       <c r="Q31" s="181"/>
       <c r="R31" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S31" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T31" s="189"/>
       <c r="U31" s="224"/>
@@ -14984,10 +15022,10 @@
       <c r="AO31" s="230"/>
       <c r="AP31" s="230"/>
     </row>
-    <row r="32" spans="1:42" s="230" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42" s="230" customFormat="1" ht="9" customHeight="1">
       <c r="A32" s="248"/>
       <c r="B32" s="248" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="181"/>
       <c r="D32" s="235"/>
@@ -15005,10 +15043,10 @@
       <c r="P32" s="181"/>
       <c r="Q32" s="181"/>
       <c r="R32" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S32" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T32" s="189"/>
       <c r="U32" s="224"/>
@@ -15018,10 +15056,10 @@
       <c r="Y32" s="181"/>
       <c r="Z32" s="181"/>
     </row>
-    <row r="33" spans="1:42" s="230" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:42" s="230" customFormat="1" ht="9" customHeight="1">
       <c r="A33" s="248"/>
       <c r="B33" s="248" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="181"/>
       <c r="D33" s="181"/>
@@ -15039,10 +15077,10 @@
       <c r="P33" s="253"/>
       <c r="Q33" s="254"/>
       <c r="R33" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S33" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T33" s="189"/>
       <c r="U33" s="224"/>
@@ -15052,10 +15090,10 @@
       <c r="Y33" s="181"/>
       <c r="Z33" s="181"/>
     </row>
-    <row r="34" spans="1:42" s="230" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:42" s="230" customFormat="1" ht="9" customHeight="1">
       <c r="A34" s="248"/>
       <c r="B34" s="248" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="181"/>
       <c r="D34" s="181"/>
@@ -15073,10 +15111,10 @@
       <c r="P34" s="253"/>
       <c r="Q34" s="254"/>
       <c r="R34" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S34" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T34" s="189"/>
       <c r="W34" s="181"/>
@@ -15084,25 +15122,25 @@
       <c r="Y34" s="181"/>
       <c r="Z34" s="181"/>
       <c r="AC34" s="255" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD34" s="256" t="s">
         <v>228</v>
       </c>
-      <c r="AD34" s="256" t="s">
+      <c r="AE34" s="256" t="s">
         <v>229</v>
       </c>
-      <c r="AE34" s="256" t="s">
+      <c r="AF34" s="256" t="s">
         <v>230</v>
       </c>
-      <c r="AF34" s="256" t="s">
+      <c r="AG34" s="256" t="s">
         <v>231</v>
       </c>
-      <c r="AG34" s="256" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="35" spans="1:42" s="230" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:42" s="230" customFormat="1" ht="13.05" customHeight="1">
       <c r="A35" s="248"/>
       <c r="B35" s="248" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C35" s="181"/>
       <c r="D35" s="181"/>
@@ -15120,10 +15158,10 @@
       <c r="P35" s="253"/>
       <c r="Q35" s="254"/>
       <c r="R35" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S35" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T35" s="189"/>
       <c r="U35" s="257"/>
@@ -15133,27 +15171,27 @@
       <c r="Y35" s="181"/>
       <c r="Z35" s="181"/>
       <c r="AC35" s="258" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AD35" s="259">
         <v>574474</v>
       </c>
       <c r="AE35" s="260" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF35" s="260" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AG35" s="260" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AH35" s="261"/>
       <c r="AK35" s="262"/>
     </row>
-    <row r="36" spans="1:42" s="230" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" s="230" customFormat="1" ht="13.05" customHeight="1">
       <c r="A36" s="248"/>
       <c r="B36" s="248" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C36" s="181"/>
       <c r="D36" s="181"/>
@@ -15171,35 +15209,35 @@
       <c r="P36" s="253"/>
       <c r="Q36" s="254"/>
       <c r="R36" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S36" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W36" s="181"/>
       <c r="X36" s="181"/>
       <c r="Y36" s="181"/>
       <c r="Z36" s="181"/>
       <c r="AC36" s="258" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AD36" s="263">
         <v>0.62850165485953546</v>
       </c>
       <c r="AE36" s="260" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF36" s="260" t="s">
         <v>238</v>
       </c>
-      <c r="AF36" s="260" t="s">
+      <c r="AG36" s="260" t="s">
         <v>239</v>
       </c>
-      <c r="AG36" s="260" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="37" spans="1:42" s="230" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:42" s="230" customFormat="1" ht="13.05" customHeight="1">
       <c r="A37" s="248"/>
       <c r="B37" s="248" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="181"/>
       <c r="D37" s="181"/>
@@ -15217,32 +15255,32 @@
       <c r="P37" s="253"/>
       <c r="Q37" s="254"/>
       <c r="R37" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S37" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W37" s="181"/>
       <c r="X37" s="181"/>
       <c r="Y37" s="181"/>
       <c r="Z37" s="181"/>
       <c r="AC37" s="258" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AD37" s="263">
         <v>0.41091886323006682</v>
       </c>
       <c r="AE37" s="260" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF37" s="260" t="s">
+        <v>238</v>
+      </c>
+      <c r="AG37" s="260" t="s">
         <v>239</v>
       </c>
-      <c r="AG37" s="260" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="38" spans="1:42" s="228" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:42" s="228" customFormat="1" ht="13.05" customHeight="1">
       <c r="A38" s="212"/>
       <c r="B38" s="248"/>
       <c r="C38" s="181"/>
@@ -15261,10 +15299,10 @@
       <c r="P38" s="253"/>
       <c r="Q38" s="254"/>
       <c r="R38" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S38" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T38" s="189"/>
       <c r="U38" s="224"/>
@@ -15275,19 +15313,19 @@
       <c r="Z38" s="181"/>
       <c r="AA38" s="227"/>
       <c r="AC38" s="258" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AD38" s="259">
         <v>1279.5481227610337</v>
       </c>
       <c r="AE38" s="260" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF38" s="260" t="s">
+        <v>238</v>
+      </c>
+      <c r="AG38" s="260" t="s">
         <v>239</v>
-      </c>
-      <c r="AG38" s="260" t="s">
-        <v>240</v>
       </c>
       <c r="AI38" s="230"/>
       <c r="AJ38" s="230"/>
@@ -15298,7 +15336,7 @@
       <c r="AO38" s="230"/>
       <c r="AP38" s="230"/>
     </row>
-    <row r="39" spans="1:42" s="228" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:42" s="228" customFormat="1" ht="13.05" customHeight="1">
       <c r="A39" s="212"/>
       <c r="B39" s="248"/>
       <c r="C39" s="181"/>
@@ -15317,10 +15355,10 @@
       <c r="P39" s="253"/>
       <c r="Q39" s="254"/>
       <c r="R39" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S39" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T39" s="189"/>
       <c r="U39" s="224"/>
@@ -15331,19 +15369,19 @@
       <c r="Z39" s="181"/>
       <c r="AA39" s="227"/>
       <c r="AC39" s="258" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AD39" s="259">
         <v>27190.931320064959</v>
       </c>
       <c r="AE39" s="260" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF39" s="260" t="s">
+        <v>238</v>
+      </c>
+      <c r="AG39" s="260" t="s">
         <v>247</v>
-      </c>
-      <c r="AF39" s="260" t="s">
-        <v>239</v>
-      </c>
-      <c r="AG39" s="260" t="s">
-        <v>248</v>
       </c>
       <c r="AI39" s="230"/>
       <c r="AJ39" s="230"/>
@@ -15354,7 +15392,7 @@
       <c r="AO39" s="230"/>
       <c r="AP39" s="230"/>
     </row>
-    <row r="40" spans="1:42" s="228" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:42" s="228" customFormat="1" ht="13.05" customHeight="1">
       <c r="A40" s="212"/>
       <c r="B40" s="248"/>
       <c r="C40" s="181"/>
@@ -15372,10 +15410,10 @@
       <c r="P40" s="253"/>
       <c r="Q40" s="254"/>
       <c r="R40" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S40" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T40" s="189"/>
       <c r="U40" s="224"/>
@@ -15386,19 +15424,19 @@
       <c r="Z40" s="181"/>
       <c r="AA40" s="227"/>
       <c r="AC40" s="258" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AD40" s="263">
         <v>0.90909090909090906</v>
       </c>
       <c r="AE40" s="260" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF40" s="260" t="s">
         <v>238</v>
       </c>
-      <c r="AF40" s="260" t="s">
+      <c r="AG40" s="260" t="s">
         <v>239</v>
-      </c>
-      <c r="AG40" s="260" t="s">
-        <v>240</v>
       </c>
       <c r="AI40" s="230"/>
       <c r="AJ40" s="230"/>
@@ -15409,7 +15447,7 @@
       <c r="AO40" s="230"/>
       <c r="AP40" s="230"/>
     </row>
-    <row r="41" spans="1:42" s="228" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:42" s="228" customFormat="1" ht="13.05" customHeight="1">
       <c r="A41" s="212"/>
       <c r="B41" s="248"/>
       <c r="C41" s="181"/>
@@ -15427,10 +15465,10 @@
       <c r="P41" s="253"/>
       <c r="Q41" s="254"/>
       <c r="R41" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S41" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T41" s="189"/>
       <c r="U41" s="224"/>
@@ -15441,19 +15479,19 @@
       <c r="Z41" s="181"/>
       <c r="AA41" s="227"/>
       <c r="AC41" s="258" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AD41" s="264">
         <v>6.4978201825939804E-3</v>
       </c>
       <c r="AE41" s="260" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF41" s="260" t="s">
+        <v>238</v>
+      </c>
+      <c r="AG41" s="260" t="s">
         <v>239</v>
-      </c>
-      <c r="AG41" s="260" t="s">
-        <v>240</v>
       </c>
       <c r="AI41" s="230"/>
       <c r="AJ41" s="230"/>
@@ -15464,7 +15502,7 @@
       <c r="AO41" s="230"/>
       <c r="AP41" s="230"/>
     </row>
-    <row r="42" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1">
       <c r="A42" s="212"/>
       <c r="B42" s="248"/>
       <c r="C42" s="181"/>
@@ -15482,7 +15520,7 @@
       <c r="P42" s="253"/>
       <c r="Q42" s="254"/>
       <c r="R42" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S42" s="222">
         <v>0.3</v>
@@ -15507,7 +15545,7 @@
       <c r="AO42" s="230"/>
       <c r="AP42" s="230"/>
     </row>
-    <row r="43" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1">
       <c r="A43" s="212"/>
       <c r="B43" s="248"/>
       <c r="C43" s="181"/>
@@ -15525,10 +15563,10 @@
       <c r="P43" s="253"/>
       <c r="Q43" s="254"/>
       <c r="R43" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S43" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T43" s="189"/>
       <c r="U43" s="224"/>
@@ -15552,7 +15590,7 @@
       <c r="AO43" s="230"/>
       <c r="AP43" s="230"/>
     </row>
-    <row r="44" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:42" s="228" customFormat="1" ht="9" customHeight="1">
       <c r="A44" s="212"/>
       <c r="B44" s="248"/>
       <c r="C44" s="181"/>
@@ -15570,10 +15608,10 @@
       <c r="P44" s="253"/>
       <c r="Q44" s="254"/>
       <c r="R44" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S44" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T44" s="189"/>
       <c r="U44" s="224"/>
@@ -15597,7 +15635,7 @@
       <c r="AO44" s="230"/>
       <c r="AP44" s="230"/>
     </row>
-    <row r="45" spans="1:42" s="228" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:42" s="228" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="212"/>
       <c r="B45" s="248"/>
       <c r="C45" s="181"/>
@@ -15615,10 +15653,10 @@
       <c r="P45" s="253"/>
       <c r="Q45" s="254"/>
       <c r="R45" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S45" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T45" s="189"/>
       <c r="U45" s="224"/>
@@ -15634,27 +15672,27 @@
       <c r="AF45" s="270"/>
       <c r="AG45" s="270"/>
       <c r="AI45" s="320" t="s">
+        <v>251</v>
+      </c>
+      <c r="AJ45" s="318" t="s">
         <v>252</v>
       </c>
-      <c r="AJ45" s="318" t="s">
+      <c r="AK45" s="318" t="s">
         <v>253</v>
       </c>
-      <c r="AK45" s="318" t="s">
+      <c r="AL45" s="318" t="s">
         <v>254</v>
       </c>
-      <c r="AL45" s="318" t="s">
+      <c r="AM45" s="318" t="s">
         <v>255</v>
       </c>
-      <c r="AM45" s="318" t="s">
+      <c r="AN45" s="318" t="s">
         <v>256</v>
-      </c>
-      <c r="AN45" s="318" t="s">
-        <v>257</v>
       </c>
       <c r="AO45" s="230"/>
       <c r="AP45" s="230"/>
     </row>
-    <row r="46" spans="1:42" s="228" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:42" s="228" customFormat="1" ht="12" customHeight="1">
       <c r="A46" s="212"/>
       <c r="B46" s="248"/>
       <c r="C46" s="181"/>
@@ -15672,10 +15710,10 @@
       <c r="P46" s="253"/>
       <c r="Q46" s="254"/>
       <c r="R46" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S46" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T46" s="189"/>
       <c r="U46" s="224"/>
@@ -15699,7 +15737,7 @@
       <c r="AO46" s="230"/>
       <c r="AP46" s="230"/>
     </row>
-    <row r="47" spans="1:42" s="228" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:42" s="228" customFormat="1" ht="12" customHeight="1">
       <c r="A47" s="212"/>
       <c r="B47" s="248"/>
       <c r="C47" s="181"/>
@@ -15717,10 +15755,10 @@
       <c r="P47" s="253"/>
       <c r="Q47" s="254"/>
       <c r="R47" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S47" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T47" s="189"/>
       <c r="U47" s="224"/>
@@ -15744,7 +15782,7 @@
       <c r="AO47" s="230"/>
       <c r="AP47" s="230"/>
     </row>
-    <row r="48" spans="1:42" s="228" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:42" s="228" customFormat="1" ht="18.45" customHeight="1">
       <c r="A48" s="212"/>
       <c r="B48" s="248"/>
       <c r="C48" s="181"/>
@@ -15762,10 +15800,10 @@
       <c r="P48" s="253"/>
       <c r="Q48" s="254"/>
       <c r="R48" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S48" s="222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T48" s="189"/>
       <c r="U48" s="224"/>
@@ -15801,7 +15839,7 @@
       <c r="AO48" s="230"/>
       <c r="AP48" s="230"/>
     </row>
-    <row r="49" spans="2:47" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:47" ht="18.45" customHeight="1">
       <c r="B49" s="276"/>
       <c r="E49" s="235"/>
       <c r="F49" s="250"/>
@@ -15835,7 +15873,7 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="50" spans="2:47" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:47" ht="18.45" customHeight="1">
       <c r="B50" s="276"/>
       <c r="E50" s="235"/>
       <c r="F50" s="250"/>
@@ -15867,7 +15905,7 @@
         <v>45.7</v>
       </c>
     </row>
-    <row r="51" spans="2:47" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:47" ht="18.45" customHeight="1">
       <c r="B51" s="276"/>
       <c r="K51" s="181"/>
       <c r="L51" s="181"/>
@@ -15897,7 +15935,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="52" spans="2:47" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:47" ht="18.45" customHeight="1">
       <c r="B52" s="276"/>
       <c r="K52" s="181"/>
       <c r="L52" s="181"/>
@@ -15923,7 +15961,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="53" spans="2:47" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:47" ht="18.45" customHeight="1">
       <c r="B53" s="276"/>
       <c r="C53" s="279"/>
       <c r="J53" s="182"/>
@@ -15951,7 +15989,7 @@
         <v>45.4</v>
       </c>
     </row>
-    <row r="54" spans="2:47" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:47" ht="18.45" customHeight="1">
       <c r="B54" s="276"/>
       <c r="C54" s="279"/>
       <c r="J54" s="182"/>
@@ -15977,7 +16015,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="55" spans="2:47" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:47" ht="9" customHeight="1">
       <c r="B55" s="276"/>
       <c r="C55" s="280"/>
       <c r="J55" s="182"/>
@@ -15989,38 +16027,38 @@
         <v>27586036</v>
       </c>
     </row>
-    <row r="56" spans="2:47" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:47" ht="9" customHeight="1">
       <c r="B56" s="276"/>
       <c r="C56" s="280"/>
       <c r="L56" s="181"/>
       <c r="M56" s="181"/>
     </row>
-    <row r="57" spans="2:47" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:47" ht="9" customHeight="1">
       <c r="B57" s="276"/>
       <c r="C57" s="279"/>
     </row>
-    <row r="58" spans="2:47" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:47" ht="12.3" customHeight="1">
       <c r="B58" s="280"/>
       <c r="C58" s="279"/>
       <c r="AJ58" s="253"/>
     </row>
-    <row r="59" spans="2:47" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:47" ht="12.3" customHeight="1">
       <c r="C59" s="279"/>
     </row>
-    <row r="60" spans="2:47" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="2:47" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:47" ht="12.3" customHeight="1"/>
+    <row r="61" spans="2:47" ht="12.3" customHeight="1"/>
+    <row r="63" spans="2:47">
       <c r="K63" s="181"/>
       <c r="L63" s="181"/>
       <c r="M63" s="181"/>
     </row>
-    <row r="64" spans="2:47" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:47" ht="24" customHeight="1">
       <c r="K64" s="181"/>
       <c r="L64" s="181"/>
       <c r="M64" s="181"/>
       <c r="AP64" s="282"/>
       <c r="AQ64" s="283" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AR64" s="283" t="str">
         <f>+AK45</f>
@@ -16039,7 +16077,7 @@
         <v>Gini Coefficient (h)</v>
       </c>
     </row>
-    <row r="65" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:47" ht="18" customHeight="1">
       <c r="K65" s="181"/>
       <c r="L65" s="181"/>
       <c r="M65" s="181"/>
@@ -16047,7 +16085,7 @@
         <v>1</v>
       </c>
       <c r="AQ65" s="271" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AR65" s="273">
         <v>22033.945309320345</v>
@@ -16062,7 +16100,7 @@
         <v>41.4</v>
       </c>
     </row>
-    <row r="66" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:47" ht="18" customHeight="1">
       <c r="K66" s="181"/>
       <c r="L66" s="181"/>
       <c r="M66" s="181"/>
@@ -16070,7 +16108,7 @@
         <v>2</v>
       </c>
       <c r="AQ66" s="271" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AR66" s="273">
         <v>15638.829897398775</v>
@@ -16082,10 +16120,10 @@
         <v>31.5</v>
       </c>
       <c r="AU66" s="285" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="67" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="6:47" ht="18" customHeight="1">
       <c r="K67" s="181"/>
       <c r="L67" s="181"/>
       <c r="M67" s="181"/>
@@ -16098,7 +16136,7 @@
         <v>3</v>
       </c>
       <c r="AQ67" s="271" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AR67" s="273">
         <v>7004.9123012291548</v>
@@ -16110,10 +16148,10 @@
         <v>41</v>
       </c>
       <c r="AU67" s="285" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="68" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="6:47" ht="18" customHeight="1">
       <c r="K68" s="181"/>
       <c r="L68" s="181"/>
       <c r="M68" s="181"/>
@@ -16127,7 +16165,7 @@
         <v>4</v>
       </c>
       <c r="AQ68" s="271" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AR68" s="273">
         <v>14651.61618093461</v>
@@ -16142,7 +16180,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="69" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:47" ht="18" customHeight="1">
       <c r="K69" s="181"/>
       <c r="L69" s="181"/>
       <c r="M69" s="181"/>
@@ -16156,7 +16194,7 @@
         <v>5</v>
       </c>
       <c r="AQ69" s="271" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AR69" s="273">
         <v>19642.417853166826</v>
@@ -16171,7 +16209,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:47" ht="18" customHeight="1">
       <c r="K70" s="181"/>
       <c r="L70" s="181"/>
       <c r="M70" s="181"/>
@@ -16185,7 +16223,7 @@
         <v>6</v>
       </c>
       <c r="AQ70" s="271" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AR70" s="273">
         <v>24226.150887899796</v>
@@ -16200,7 +16238,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="71" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:47" ht="18" customHeight="1">
       <c r="K71" s="181"/>
       <c r="L71" s="181"/>
       <c r="M71" s="181"/>
@@ -16214,7 +16252,7 @@
         <v>7</v>
       </c>
       <c r="AQ71" s="271" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AR71" s="273">
         <v>18419.034263015157</v>
@@ -16229,7 +16267,7 @@
         <v>43.7</v>
       </c>
     </row>
-    <row r="72" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:47" ht="18" customHeight="1">
       <c r="K72" s="181"/>
       <c r="L72" s="181"/>
       <c r="M72" s="181"/>
@@ -16243,7 +16281,7 @@
         <v>8</v>
       </c>
       <c r="AQ72" s="271" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AR72" s="273">
         <v>8637.5553249751792</v>
@@ -16258,7 +16296,7 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="73" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:47" ht="18" customHeight="1">
       <c r="K73" s="181"/>
       <c r="L73" s="181"/>
       <c r="M73" s="181"/>
@@ -16272,7 +16310,7 @@
         <v>9</v>
       </c>
       <c r="AQ73" s="271" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AR73" s="273">
         <v>1728.9100699872324</v>
@@ -16287,7 +16325,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="74" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:47" ht="18" customHeight="1">
       <c r="K74" s="181"/>
       <c r="L74" s="181"/>
       <c r="M74" s="181"/>
@@ -16301,7 +16339,7 @@
         <v>10</v>
       </c>
       <c r="AQ74" s="271" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AR74" s="273">
         <v>9761.4985221052757</v>
@@ -16313,10 +16351,10 @@
         <v>17.100000000000001</v>
       </c>
       <c r="AU74" s="285" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="75" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" spans="6:47" ht="18" customHeight="1">
       <c r="K75" s="181"/>
       <c r="L75" s="181"/>
       <c r="M75" s="181"/>
@@ -16330,7 +16368,7 @@
         <v>11</v>
       </c>
       <c r="AQ75" s="271" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AR75" s="273">
         <v>5407.1047020797114</v>
@@ -16345,7 +16383,7 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="76" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:47" ht="18" customHeight="1">
       <c r="K76" s="181"/>
       <c r="L76" s="181"/>
       <c r="M76" s="181"/>
@@ -16359,7 +16397,7 @@
         <v>12</v>
       </c>
       <c r="AQ76" s="271" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AR76" s="273">
         <v>31458.692625521315</v>
@@ -16374,7 +16412,7 @@
         <v>49.2</v>
       </c>
     </row>
-    <row r="77" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:47" ht="18" customHeight="1">
       <c r="K77" s="181"/>
       <c r="L77" s="181"/>
       <c r="M77" s="181"/>
@@ -16388,7 +16426,7 @@
         <v>13</v>
       </c>
       <c r="AQ77" s="271" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AR77" s="273">
         <v>12684.596191076354</v>
@@ -16403,7 +16441,7 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="78" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:47" ht="18" customHeight="1">
       <c r="K78" s="181"/>
       <c r="L78" s="181"/>
       <c r="M78" s="181"/>
@@ -16417,7 +16455,7 @@
         <v>14</v>
       </c>
       <c r="AQ78" s="271" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AR78" s="273">
         <v>16328.686115677745</v>
@@ -16429,10 +16467,10 @@
         <v>70</v>
       </c>
       <c r="AU78" s="285" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="79" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="79" spans="6:47" ht="18" customHeight="1">
       <c r="K79" s="181"/>
       <c r="L79" s="181"/>
       <c r="M79" s="181"/>
@@ -16446,7 +16484,7 @@
         <v>15</v>
       </c>
       <c r="AQ79" s="271" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AR79" s="273">
         <v>26175.951728287968</v>
@@ -16458,10 +16496,10 @@
         <v>20</v>
       </c>
       <c r="AU79" s="285" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="80" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="80" spans="6:47" ht="18" customHeight="1">
       <c r="F80" s="287"/>
       <c r="L80" s="181"/>
       <c r="M80" s="181"/>
@@ -16475,7 +16513,7 @@
         <v>16</v>
       </c>
       <c r="AQ80" s="271" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AR80" s="273">
         <v>21561.062052917718</v>
@@ -16490,7 +16528,7 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="81" spans="6:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:47" ht="18" customHeight="1">
       <c r="F81" s="287"/>
       <c r="R81" s="254"/>
       <c r="S81" s="254"/>
@@ -16502,10 +16540,10 @@
         <v>17</v>
       </c>
       <c r="AQ81" s="271" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR81" s="273" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AS81" s="284">
         <v>0.72599999999999998</v>
@@ -16514,10 +16552,10 @@
         <v>19.7</v>
       </c>
       <c r="AU81" s="285" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="82" spans="6:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="6:47" ht="14.25" customHeight="1">
       <c r="F82" s="287"/>
       <c r="R82" s="254"/>
       <c r="S82" s="254"/>
@@ -16529,7 +16567,7 @@
       <c r="AT82" s="275"/>
       <c r="AU82" s="285"/>
     </row>
-    <row r="83" spans="6:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:47" ht="14.25" customHeight="1">
       <c r="F83" s="287"/>
       <c r="R83" s="254"/>
       <c r="S83" s="254"/>
@@ -16541,79 +16579,79 @@
       <c r="AT83" s="275"/>
       <c r="AU83" s="285"/>
     </row>
-    <row r="84" spans="6:47" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:47">
       <c r="F84" s="287"/>
       <c r="R84" s="254"/>
       <c r="S84" s="254"/>
       <c r="AA84" s="286"/>
     </row>
-    <row r="85" spans="6:47" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:47">
       <c r="R85" s="254"/>
       <c r="S85" s="254"/>
       <c r="AA85" s="286"/>
     </row>
-    <row r="86" spans="6:47" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:47">
       <c r="AA86" s="286"/>
     </row>
-    <row r="87" spans="6:47" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:47">
       <c r="AA87" s="286"/>
     </row>
-    <row r="91" spans="6:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="6:47" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="6:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="6:47" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="6:47" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:47" ht="33.75" customHeight="1"/>
+    <row r="92" spans="6:47" ht="22.8" customHeight="1"/>
+    <row r="93" spans="6:47" ht="33.75" customHeight="1"/>
+    <row r="95" spans="6:47" ht="22.8" customHeight="1"/>
+    <row r="96" spans="6:47">
       <c r="T96" s="288"/>
       <c r="U96" s="288"/>
       <c r="V96" s="183"/>
     </row>
-    <row r="97" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="22.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="22.8" customHeight="1"/>
+    <row r="98" ht="33.75" customHeight="1"/>
+    <row r="99" ht="33.75" customHeight="1"/>
+    <row r="101" ht="22.8" customHeight="1"/>
+    <row r="102" ht="22.8" customHeight="1"/>
+    <row r="103" ht="22.8" customHeight="1"/>
+    <row r="104" ht="22.8" customHeight="1"/>
+    <row r="105" ht="33.75" customHeight="1"/>
+    <row r="106" ht="22.8" customHeight="1"/>
+    <row r="107" ht="22.8" customHeight="1"/>
+    <row r="109" ht="22.8" customHeight="1"/>
+    <row r="110" ht="22.8" customHeight="1"/>
+    <row r="111" ht="22.8" customHeight="1"/>
+    <row r="112" ht="22.8" customHeight="1"/>
+    <row r="117" ht="22.8" customHeight="1"/>
+    <row r="118" ht="33.75" customHeight="1"/>
+    <row r="119" ht="22.8" customHeight="1"/>
+    <row r="120" ht="22.8" customHeight="1"/>
+    <row r="121" ht="33.75" customHeight="1"/>
+    <row r="122" ht="33.75" customHeight="1"/>
+    <row r="123" ht="22.8" customHeight="1"/>
+    <row r="124" ht="33.75" customHeight="1"/>
+    <row r="125" ht="33.75" customHeight="1"/>
+    <row r="126" ht="22.8" customHeight="1"/>
+    <row r="127" ht="22.8" customHeight="1"/>
+    <row r="128" ht="22.8" customHeight="1"/>
+    <row r="129" ht="22.8" customHeight="1"/>
+    <row r="130" ht="22.8" customHeight="1"/>
+    <row r="133" ht="22.8" customHeight="1"/>
+    <row r="134" ht="33.75" customHeight="1"/>
+    <row r="135" ht="33.75" customHeight="1"/>
+    <row r="136" ht="33.75" customHeight="1"/>
+    <row r="137" ht="22.8" customHeight="1"/>
+    <row r="138" ht="22.8" customHeight="1"/>
+    <row r="141" ht="33.75" customHeight="1"/>
+    <row r="143" ht="22.8" customHeight="1"/>
+    <row r="144" ht="22.8" customHeight="1"/>
+    <row r="145" ht="22.8" customHeight="1"/>
+    <row r="146" ht="33.75" customHeight="1"/>
+    <row r="147" ht="33.75" customHeight="1"/>
+    <row r="148" ht="45" customHeight="1"/>
+    <row r="149" ht="22.8" customHeight="1"/>
+    <row r="150" ht="22.8" customHeight="1"/>
+    <row r="151" ht="22.8" customHeight="1"/>
+    <row r="163" ht="22.8" customHeight="1"/>
+    <row r="164" ht="22.8" customHeight="1"/>
+    <row r="165" ht="22.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="AN45:AN47"/>
@@ -16636,45 +16674,45 @@
   </sheetPr>
   <dimension ref="A2:DM23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" style="179" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" style="179" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" style="179" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" style="179" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.36328125" style="179" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" style="179" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="179" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="179" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.36328125" style="179" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" style="179" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="179" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="179" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" style="179" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="179" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="179" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="179" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="179" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="179" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="179" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.36328125" style="179" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="8.90625" style="179" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="9.90625" style="179" bestFit="1" customWidth="1"/>
-    <col min="20" max="28" width="8.90625" style="179" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="9.90625" style="179" bestFit="1" customWidth="1"/>
-    <col min="32" max="40" width="8.90625" style="179" bestFit="1" customWidth="1"/>
-    <col min="41" max="43" width="9.90625" style="179" bestFit="1" customWidth="1"/>
-    <col min="44" max="52" width="8.90625" style="179" bestFit="1" customWidth="1"/>
-    <col min="53" max="55" width="9.90625" style="179" bestFit="1" customWidth="1"/>
-    <col min="56" max="64" width="8.90625" style="179" bestFit="1" customWidth="1"/>
-    <col min="65" max="67" width="9.90625" style="179" bestFit="1" customWidth="1"/>
-    <col min="68" max="76" width="8.90625" style="179" bestFit="1" customWidth="1"/>
-    <col min="77" max="79" width="9.90625" style="179" bestFit="1" customWidth="1"/>
-    <col min="80" max="88" width="8.90625" style="179" bestFit="1" customWidth="1"/>
-    <col min="89" max="91" width="9.90625" style="179" bestFit="1" customWidth="1"/>
-    <col min="92" max="100" width="8.90625" style="179" bestFit="1" customWidth="1"/>
-    <col min="101" max="103" width="9.90625" style="179" bestFit="1" customWidth="1"/>
-    <col min="104" max="112" width="8.90625" style="179" bestFit="1" customWidth="1"/>
-    <col min="113" max="115" width="9.90625" style="179" bestFit="1" customWidth="1"/>
-    <col min="116" max="16384" width="8.7265625" style="179"/>
+    <col min="11" max="12" width="14.33203125" style="179" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="8.88671875" style="179" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9.88671875" style="179" bestFit="1" customWidth="1"/>
+    <col min="20" max="28" width="8.88671875" style="179" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="9.88671875" style="179" bestFit="1" customWidth="1"/>
+    <col min="32" max="40" width="8.88671875" style="179" bestFit="1" customWidth="1"/>
+    <col min="41" max="43" width="9.88671875" style="179" bestFit="1" customWidth="1"/>
+    <col min="44" max="52" width="8.88671875" style="179" bestFit="1" customWidth="1"/>
+    <col min="53" max="55" width="9.88671875" style="179" bestFit="1" customWidth="1"/>
+    <col min="56" max="64" width="8.88671875" style="179" bestFit="1" customWidth="1"/>
+    <col min="65" max="67" width="9.88671875" style="179" bestFit="1" customWidth="1"/>
+    <col min="68" max="76" width="8.88671875" style="179" bestFit="1" customWidth="1"/>
+    <col min="77" max="79" width="9.88671875" style="179" bestFit="1" customWidth="1"/>
+    <col min="80" max="88" width="8.88671875" style="179" bestFit="1" customWidth="1"/>
+    <col min="89" max="91" width="9.88671875" style="179" bestFit="1" customWidth="1"/>
+    <col min="92" max="100" width="8.88671875" style="179" bestFit="1" customWidth="1"/>
+    <col min="101" max="103" width="9.88671875" style="179" bestFit="1" customWidth="1"/>
+    <col min="104" max="112" width="8.88671875" style="179" bestFit="1" customWidth="1"/>
+    <col min="113" max="115" width="9.88671875" style="179" bestFit="1" customWidth="1"/>
+    <col min="116" max="16384" width="8.77734375" style="179"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:117" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:117" ht="13.8" thickBot="1">
       <c r="B2" s="289"/>
       <c r="C2" s="289"/>
       <c r="D2" s="289"/>
@@ -16790,18 +16828,18 @@
       <c r="DJ2" s="289"/>
       <c r="DK2" s="289"/>
     </row>
-    <row r="3" spans="1:117" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:117">
       <c r="A3" s="290" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="291" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="292" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" s="293" t="s">
         <v>276</v>
-      </c>
-      <c r="B3" s="291" t="s">
-        <v>289</v>
-      </c>
-      <c r="C3" s="292" t="s">
-        <v>292</v>
-      </c>
-      <c r="D3" s="293" t="s">
-        <v>277</v>
       </c>
       <c r="E3" s="294">
         <v>44074</v>
@@ -17255,9 +17293,9 @@
         <v>47483</v>
       </c>
     </row>
-    <row r="4" spans="1:117" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:117">
       <c r="A4" s="296" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B4" s="297">
         <v>6000000</v>
@@ -17390,7 +17428,7 @@
       <c r="DL4" s="298"/>
       <c r="DM4" s="301"/>
     </row>
-    <row r="5" spans="1:117" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:117">
       <c r="A5" s="296" t="s">
         <v>136</v>
       </c>
@@ -17525,9 +17563,9 @@
       <c r="DL5" s="298"/>
       <c r="DM5" s="301"/>
     </row>
-    <row r="6" spans="1:117" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:117">
       <c r="A6" s="296" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B6" s="297">
         <v>4000000</v>
@@ -17660,9 +17698,9 @@
       <c r="DL6" s="298"/>
       <c r="DM6" s="301"/>
     </row>
-    <row r="7" spans="1:117" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:117">
       <c r="A7" s="296" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B7" s="297">
         <v>4000000</v>
@@ -17795,9 +17833,9 @@
       <c r="DL7" s="298"/>
       <c r="DM7" s="301"/>
     </row>
-    <row r="8" spans="1:117" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:117">
       <c r="A8" s="296" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B8" s="297">
         <v>1000000</v>
@@ -17930,9 +17968,9 @@
       <c r="DL8" s="298"/>
       <c r="DM8" s="301"/>
     </row>
-    <row r="9" spans="1:117" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:117">
       <c r="A9" s="296" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B9" s="297">
         <v>1000000</v>
@@ -18065,9 +18103,9 @@
       <c r="DL9" s="298"/>
       <c r="DM9" s="301"/>
     </row>
-    <row r="10" spans="1:117" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:117">
       <c r="A10" s="296" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B10" s="297">
         <v>50000</v>
@@ -18196,7 +18234,7 @@
       <c r="DL10" s="298"/>
       <c r="DM10" s="301"/>
     </row>
-    <row r="11" spans="1:117" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:117" ht="13.8" thickBot="1">
       <c r="A11" s="302" t="s">
         <v>7</v>
       </c>
@@ -18665,19 +18703,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:117" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:117" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:117" ht="13.8" thickBot="1"/>
+    <row r="14" spans="1:117">
       <c r="A14" s="290" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B14" s="291" t="s">
+        <v>289</v>
+      </c>
+      <c r="C14" s="292" t="s">
         <v>290</v>
       </c>
-      <c r="C14" s="292" t="s">
-        <v>291</v>
-      </c>
       <c r="D14" s="293" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E14" s="294">
         <v>44074</v>
@@ -19131,7 +19169,7 @@
         <v>47483</v>
       </c>
     </row>
-    <row r="15" spans="1:117" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:117">
       <c r="A15" s="296" t="s">
         <v>136</v>
       </c>
@@ -19262,9 +19300,9 @@
       <c r="DL15" s="308"/>
       <c r="DM15" s="309"/>
     </row>
-    <row r="16" spans="1:117" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:117">
       <c r="A16" s="296" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B16" s="297">
         <v>6000000</v>
@@ -19393,7 +19431,7 @@
       <c r="DL16" s="308"/>
       <c r="DM16" s="309"/>
     </row>
-    <row r="17" spans="1:117" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:117">
       <c r="A17" s="296" t="s">
         <v>148</v>
       </c>
@@ -19526,7 +19564,7 @@
       <c r="DL17" s="308"/>
       <c r="DM17" s="309"/>
     </row>
-    <row r="18" spans="1:117" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:117">
       <c r="A18" s="296" t="s">
         <v>138</v>
       </c>
@@ -19655,9 +19693,9 @@
       <c r="DL18" s="308"/>
       <c r="DM18" s="309"/>
     </row>
-    <row r="19" spans="1:117" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:117">
       <c r="A19" s="296" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B19" s="297">
         <v>3000000</v>
@@ -19786,9 +19824,9 @@
       <c r="DL19" s="308"/>
       <c r="DM19" s="309"/>
     </row>
-    <row r="20" spans="1:117" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:117">
       <c r="A20" s="296" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B20" s="297">
         <v>7600000</v>
@@ -19915,9 +19953,9 @@
       <c r="DL20" s="308"/>
       <c r="DM20" s="309"/>
     </row>
-    <row r="21" spans="1:117" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:117">
       <c r="A21" s="296" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B21" s="297">
         <v>15000000</v>
@@ -20044,9 +20082,9 @@
       <c r="DL21" s="308"/>
       <c r="DM21" s="309"/>
     </row>
-    <row r="22" spans="1:117" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:117">
       <c r="A22" s="296" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B22" s="297">
         <v>0</v>
@@ -20173,9 +20211,9 @@
       <c r="DL22" s="308"/>
       <c r="DM22" s="309"/>
     </row>
-    <row r="23" spans="1:117" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:117" ht="13.8" thickBot="1">
       <c r="A23" s="302" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B23" s="303">
         <f>SUM(B15:B22)</f>
@@ -20648,6 +20686,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100427EA18E1138BC4D9DA6EE2285349B2A" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="cc6e5bec32a0e9fac181c32b9cad98bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6b12c305-95b0-4b80-9514-c6b86e19b0c5" xmlns:ns4="170adaaf-5bd9-47fc-b1cd-b112a7c2f5a0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="41ea50025d7003f47056f4eb29dc993a" ns3:_="" ns4:_="">
     <xsd:import namespace="6b12c305-95b0-4b80-9514-c6b86e19b0c5"/>
@@ -20870,22 +20923,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{516E915E-9D02-425B-BBF3-5A289B13AD8E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="6b12c305-95b0-4b80-9514-c6b86e19b0c5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="170adaaf-5bd9-47fc-b1cd-b112a7c2f5a0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD3FE616-A6FB-456E-9377-03D73B50BECD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30C9CAFD-5AB7-4EA8-A9AD-919A3342A244}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20902,29 +20965,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD3FE616-A6FB-456E-9377-03D73B50BECD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{516E915E-9D02-425B-BBF3-5A289B13AD8E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="6b12c305-95b0-4b80-9514-c6b86e19b0c5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="170adaaf-5bd9-47fc-b1cd-b112a7c2f5a0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>